--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1248,14 +1248,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1266,14 +1260,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,38 +1305,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1335,19 +1317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,13 +1332,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F275" sqref="F275"/>
+      <selection activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1693,7 @@
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,3949 +1717,3794 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="38">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="48" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="35"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="50" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="49" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="28">
         <v>4</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="46" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="48" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="37">
         <v>5</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
+      <c r="A32" s="41">
         <v>6</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="29">
         <v>7</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="49" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="34"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
+      <c r="A42" s="41">
         <v>8</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="49"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="29">
         <v>9</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="34"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="49" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="34"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="35"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="28">
         <v>10</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="34"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="49" t="s">
+      <c r="A57" s="29"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G57" s="34"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="35"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="48"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="28">
         <v>11</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="48" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="34"/>
+      <c r="G60" s="47"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="35"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="48"/>
     </row>
     <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
+      <c r="A62" s="28">
         <v>12</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="48" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G63" s="34"/>
+      <c r="G63" s="47"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="34"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="47"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="35"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="48"/>
     </row>
     <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="A66" s="28">
         <v>13</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="48" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="34"/>
+      <c r="G67" s="47"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="35"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="48"/>
     </row>
     <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
+      <c r="A69" s="28">
         <v>14</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="48" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="34"/>
+      <c r="G70" s="47"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="35"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="48"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
+      <c r="A72" s="28">
         <v>15</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="46" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="34"/>
+      <c r="G73" s="47"/>
     </row>
     <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="34"/>
+      <c r="G74" s="47"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="49" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G75" s="34"/>
+      <c r="G75" s="47"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="35"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="48"/>
     </row>
     <row r="77" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="A77" s="28">
         <v>16</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="46" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G78" s="34"/>
+      <c r="G78" s="47"/>
     </row>
     <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G79" s="34"/>
+      <c r="G79" s="47"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="49" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G80" s="34"/>
+      <c r="G80" s="47"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="34"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="47"/>
     </row>
     <row r="82" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
+      <c r="A82" s="28">
         <v>17</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G83" s="34"/>
+      <c r="G83" s="47"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="42"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="55"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
+      <c r="A85" s="28">
         <v>18</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="46" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="34"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="47"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="34"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="47"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="34"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="47"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="34"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="47"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="34"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="47"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="35"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="48"/>
     </row>
     <row r="92" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
+      <c r="A92" s="28">
         <v>19</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="G92" s="46" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
       <c r="F93" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G93" s="34"/>
+      <c r="G93" s="47"/>
     </row>
     <row r="94" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G94" s="34"/>
+      <c r="G94" s="47"/>
     </row>
     <row r="95" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18">
-        <v>21</v>
-      </c>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="28">
+        <v>20</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="46" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="34"/>
+      <c r="G96" s="47"/>
     </row>
     <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="50">
-        <v>23</v>
-      </c>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="41">
+        <v>21</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="49" t="s">
+      <c r="G97" s="22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G98" s="49"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G99" s="49"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="49"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G101" s="49"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
-        <v>24</v>
-      </c>
-      <c r="B102" s="22" t="s">
+      <c r="A102" s="29">
+        <v>22</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="34" t="s">
+      <c r="G102" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G103" s="34"/>
+      <c r="G103" s="47"/>
     </row>
     <row r="104" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
       <c r="F104" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G104" s="34"/>
+      <c r="G104" s="47"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="38"/>
-    </row>
-    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A106" s="18">
-        <v>27</v>
-      </c>
-      <c r="B106" s="21" t="s">
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="58"/>
+    </row>
+    <row r="106" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="28">
+        <v>23</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G107" s="34"/>
+      <c r="G107" s="47"/>
     </row>
     <row r="108" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G108" s="34"/>
+      <c r="G108" s="47"/>
     </row>
     <row r="109" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="18">
-        <v>28</v>
-      </c>
-      <c r="B109" s="21" t="s">
+      <c r="A109" s="28">
+        <v>24</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E109" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
       <c r="F110" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G110" s="34"/>
+      <c r="G110" s="47"/>
     </row>
     <row r="111" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G111" s="34"/>
+      <c r="G111" s="47"/>
     </row>
     <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
-        <v>29</v>
-      </c>
-      <c r="B112" s="21" t="s">
+      <c r="A112" s="28">
+        <v>25</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E112" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G113" s="34"/>
-    </row>
-    <row r="114" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
+      <c r="G113" s="47"/>
+    </row>
+    <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="29"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G114" s="34"/>
-    </row>
-    <row r="115" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="29"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G115" s="34"/>
-    </row>
-    <row r="116" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="G115" s="47"/>
+    </row>
+    <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G116" s="34"/>
+      <c r="G116" s="47"/>
     </row>
     <row r="117" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G117" s="34"/>
+      <c r="G117" s="47"/>
     </row>
     <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
-        <v>30</v>
-      </c>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="28">
+        <v>26</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="46" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="34"/>
+      <c r="G119" s="47"/>
     </row>
     <row r="120" spans="1:7" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G120" s="34"/>
+      <c r="G120" s="47"/>
     </row>
     <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="18">
-        <v>31</v>
-      </c>
-      <c r="B121" s="21" t="s">
+      <c r="A121" s="28">
+        <v>27</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G122" s="34"/>
-    </row>
-    <row r="123" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
+      <c r="G122" s="47"/>
+    </row>
+    <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G123" s="34"/>
+      <c r="G123" s="47"/>
     </row>
     <row r="124" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
       <c r="F124" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G124" s="34"/>
+      <c r="G124" s="47"/>
     </row>
     <row r="125" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="18">
-        <v>32</v>
-      </c>
-      <c r="B125" s="21" t="s">
+      <c r="A125" s="28">
+        <v>28</v>
+      </c>
+      <c r="B125" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G126" s="34"/>
-    </row>
-    <row r="127" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G127" s="34"/>
+      <c r="G127" s="47"/>
     </row>
     <row r="128" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G128" s="34"/>
+      <c r="G128" s="47"/>
     </row>
     <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="18">
-        <v>33</v>
-      </c>
-      <c r="B129" s="21" t="s">
+      <c r="A129" s="28">
+        <v>29</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="21" t="s">
+      <c r="D129" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
       <c r="F130" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G130" s="34"/>
-    </row>
-    <row r="131" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
+      <c r="G130" s="47"/>
+    </row>
+    <row r="131" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="29"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
       <c r="F131" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="34"/>
+      <c r="G131" s="47"/>
     </row>
     <row r="132" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
       <c r="F132" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G132" s="34"/>
+      <c r="G132" s="47"/>
     </row>
     <row r="133" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
       <c r="F133" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G133" s="34"/>
+      <c r="G133" s="47"/>
     </row>
     <row r="134" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="18">
-        <v>34</v>
-      </c>
-      <c r="B134" s="21" t="s">
+      <c r="A134" s="28">
+        <v>30</v>
+      </c>
+      <c r="B134" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
       <c r="F135" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G135" s="34"/>
-    </row>
-    <row r="136" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
+      <c r="G135" s="47"/>
+    </row>
+    <row r="136" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="29"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="34"/>
-    </row>
-    <row r="137" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
+      <c r="G136" s="47"/>
+    </row>
+    <row r="137" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
       <c r="F137" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G137" s="34"/>
+      <c r="G137" s="47"/>
     </row>
     <row r="138" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
       <c r="F138" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G138" s="34"/>
+      <c r="G138" s="47"/>
     </row>
     <row r="139" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="18">
-        <v>35</v>
-      </c>
-      <c r="B139" s="21" t="s">
+      <c r="A139" s="28">
+        <v>31</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
       <c r="F140" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G140" s="34"/>
+      <c r="G140" s="47"/>
     </row>
     <row r="141" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G141" s="34"/>
+      <c r="G141" s="47"/>
     </row>
     <row r="142" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
       <c r="F142" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G142" s="34"/>
+      <c r="G142" s="47"/>
     </row>
     <row r="143" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="18">
-        <v>36</v>
-      </c>
-      <c r="B143" s="21" t="s">
+      <c r="A143" s="28">
+        <v>32</v>
+      </c>
+      <c r="B143" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
       <c r="F144" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G144" s="34"/>
+      <c r="G144" s="47"/>
     </row>
     <row r="145" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
       <c r="F145" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="34"/>
+      <c r="G145" s="47"/>
     </row>
     <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
+      <c r="A146" s="29"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
       <c r="F146" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G146" s="34"/>
+      <c r="G146" s="47"/>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="50">
-        <v>37</v>
-      </c>
-      <c r="B147" s="49" t="s">
+      <c r="A147" s="41">
+        <v>33</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D147" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="49" t="s">
+      <c r="E147" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="49" t="s">
+      <c r="G147" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A148" s="50"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="49"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G148" s="49"/>
+      <c r="G148" s="22"/>
     </row>
     <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G149" s="49"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="50"/>
-      <c r="B150" s="49"/>
-      <c r="C150" s="49"/>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G150" s="49"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
-      <c r="B151" s="49"/>
-      <c r="C151" s="49"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G151" s="49"/>
+      <c r="G151" s="22"/>
     </row>
     <row r="152" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="50"/>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G152" s="49"/>
+      <c r="G152" s="22"/>
     </row>
     <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
+      <c r="A153" s="41"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G153" s="49"/>
+      <c r="G153" s="22"/>
     </row>
     <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="19">
-        <v>38</v>
-      </c>
-      <c r="B154" s="22" t="s">
+      <c r="A154" s="29">
+        <v>34</v>
+      </c>
+      <c r="B154" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E154" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G154" s="34" t="s">
+      <c r="G154" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
       <c r="F155" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G155" s="34"/>
+      <c r="G155" s="47"/>
     </row>
     <row r="156" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
+      <c r="A156" s="29"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
       <c r="F156" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G156" s="34"/>
+      <c r="G156" s="47"/>
     </row>
     <row r="157" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
       <c r="F157" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="G157" s="34"/>
+      <c r="G157" s="47"/>
     </row>
     <row r="158" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="52">
-        <v>39</v>
-      </c>
-      <c r="B158" s="49" t="s">
+      <c r="A158" s="42">
+        <v>35</v>
+      </c>
+      <c r="B158" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C158" s="54" t="s">
+      <c r="C158" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D158" s="49" t="s">
+      <c r="D158" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="49" t="s">
+      <c r="E158" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G158" s="49" t="s">
+      <c r="G158" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A159" s="53"/>
-      <c r="B159" s="49"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G159" s="49"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="53"/>
-      <c r="B160" s="49"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="49"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G160" s="49"/>
+      <c r="G160" s="22"/>
     </row>
     <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="53"/>
-      <c r="B161" s="49"/>
-      <c r="C161" s="54"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
       <c r="F161" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G161" s="49"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="53"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
       <c r="F162" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G162" s="39"/>
+      <c r="G162" s="23"/>
     </row>
     <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="50">
-        <v>40</v>
-      </c>
-      <c r="B163" s="49" t="s">
+      <c r="A163" s="41">
+        <v>36</v>
+      </c>
+      <c r="B163" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="49" t="s">
+      <c r="D163" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="49" t="s">
+      <c r="E163" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G163" s="49" t="s">
+      <c r="G163" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G164" s="49"/>
+      <c r="G164" s="22"/>
     </row>
     <row r="165" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G165" s="49"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="50"/>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G166" s="49"/>
+      <c r="G166" s="22"/>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="50"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="G167" s="49"/>
+      <c r="G167" s="22"/>
     </row>
     <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="50">
-        <v>41</v>
-      </c>
-      <c r="B168" s="49" t="s">
+      <c r="A168" s="41">
+        <v>37</v>
+      </c>
+      <c r="B168" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="C168" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D168" s="49" t="s">
+      <c r="D168" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="49" t="s">
+      <c r="E168" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F168" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G168" s="49" t="s">
+      <c r="G168" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G169" s="49"/>
+      <c r="G169" s="22"/>
     </row>
     <row r="170" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G170" s="49"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="50"/>
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G171" s="49"/>
+      <c r="G171" s="22"/>
     </row>
     <row r="172" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="50"/>
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G172" s="49"/>
+      <c r="G172" s="22"/>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="50"/>
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G173" s="49"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="50">
-        <v>42</v>
-      </c>
-      <c r="B174" s="49" t="s">
+      <c r="A174" s="41">
+        <v>38</v>
+      </c>
+      <c r="B174" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C174" s="49" t="s">
+      <c r="C174" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="49" t="s">
+      <c r="D174" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="49" t="s">
+      <c r="E174" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F174" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="49" t="s">
+      <c r="G174" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="49"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G175" s="49"/>
+      <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="50"/>
-      <c r="B176" s="49"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G176" s="49"/>
+      <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="50"/>
-      <c r="B177" s="49"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
+      <c r="A177" s="41"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G177" s="49"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="50"/>
-      <c r="B178" s="49"/>
-      <c r="C178" s="49"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G178" s="49"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="50"/>
-      <c r="B179" s="49"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
+      <c r="A179" s="41"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G179" s="49"/>
+      <c r="G179" s="22"/>
     </row>
     <row r="180" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="50"/>
-      <c r="B180" s="49"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G180" s="49"/>
+      <c r="G180" s="22"/>
     </row>
     <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="50"/>
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G181" s="49"/>
+      <c r="G181" s="22"/>
     </row>
     <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="50">
-        <v>43</v>
-      </c>
-      <c r="B182" s="49" t="s">
+      <c r="A182" s="41">
+        <v>39</v>
+      </c>
+      <c r="B182" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C182" s="49" t="s">
+      <c r="C182" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="49" t="s">
+      <c r="D182" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="49" t="s">
+      <c r="E182" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G182" s="49" t="s">
+      <c r="G182" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A183" s="50"/>
-      <c r="B183" s="49"/>
-      <c r="C183" s="49"/>
-      <c r="D183" s="49"/>
-      <c r="E183" s="49"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G183" s="49"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="50"/>
-      <c r="B184" s="49"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G184" s="49"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="50"/>
-      <c r="B185" s="49"/>
-      <c r="C185" s="49"/>
-      <c r="D185" s="49"/>
-      <c r="E185" s="49"/>
+      <c r="A185" s="41"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G185" s="49"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="50">
-        <v>44</v>
-      </c>
-      <c r="B186" s="49" t="s">
+      <c r="A186" s="41">
+        <v>40</v>
+      </c>
+      <c r="B186" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C186" s="49" t="s">
+      <c r="C186" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D186" s="49" t="s">
+      <c r="D186" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E186" s="49" t="s">
+      <c r="E186" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="49" t="s">
+      <c r="G186" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A187" s="50"/>
-      <c r="B187" s="49"/>
-      <c r="C187" s="49"/>
-      <c r="D187" s="49"/>
-      <c r="E187" s="49"/>
+      <c r="A187" s="41"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G187" s="49"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="50"/>
-      <c r="B188" s="49"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
+      <c r="A188" s="41"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G188" s="49"/>
+      <c r="G188" s="22"/>
     </row>
     <row r="189" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="50"/>
-      <c r="B189" s="49"/>
-      <c r="C189" s="49"/>
-      <c r="D189" s="49"/>
-      <c r="E189" s="49"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G189" s="49"/>
+      <c r="G189" s="22"/>
     </row>
     <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="50">
-        <v>45</v>
-      </c>
-      <c r="B190" s="49" t="s">
+      <c r="A190" s="41">
+        <v>41</v>
+      </c>
+      <c r="B190" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C190" s="49" t="s">
+      <c r="C190" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="49" t="s">
+      <c r="D190" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="49" t="s">
+      <c r="E190" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G190" s="49" t="s">
+      <c r="G190" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A191" s="50"/>
-      <c r="B191" s="49"/>
-      <c r="C191" s="49"/>
-      <c r="D191" s="49"/>
-      <c r="E191" s="49"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G191" s="49"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="50"/>
-      <c r="B192" s="49"/>
-      <c r="C192" s="49"/>
-      <c r="D192" s="49"/>
-      <c r="E192" s="49"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G192" s="49"/>
+      <c r="G192" s="22"/>
     </row>
     <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="50"/>
-      <c r="B193" s="49"/>
-      <c r="C193" s="49"/>
-      <c r="D193" s="49"/>
-      <c r="E193" s="49"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G193" s="49"/>
+      <c r="G193" s="22"/>
     </row>
     <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="50"/>
-      <c r="B194" s="49"/>
-      <c r="C194" s="49"/>
-      <c r="D194" s="49"/>
-      <c r="E194" s="49"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G194" s="49"/>
+      <c r="G194" s="22"/>
     </row>
     <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="50"/>
-      <c r="B195" s="49"/>
-      <c r="C195" s="49"/>
-      <c r="D195" s="49"/>
-      <c r="E195" s="49"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G195" s="49"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="50">
-        <v>46</v>
-      </c>
-      <c r="B196" s="49" t="s">
+      <c r="A196" s="41">
+        <v>42</v>
+      </c>
+      <c r="B196" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C196" s="49" t="s">
+      <c r="C196" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D196" s="49" t="s">
+      <c r="D196" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="49" t="s">
+      <c r="E196" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G196" s="49" t="s">
+      <c r="G196" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A197" s="50"/>
-      <c r="B197" s="49"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="49"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G197" s="49"/>
+      <c r="G197" s="22"/>
     </row>
     <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="50"/>
-      <c r="B198" s="49"/>
-      <c r="C198" s="49"/>
-      <c r="D198" s="49"/>
-      <c r="E198" s="49"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G198" s="49"/>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="50"/>
-      <c r="B199" s="49"/>
-      <c r="C199" s="49"/>
-      <c r="D199" s="49"/>
-      <c r="E199" s="49"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G199" s="49"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="50"/>
-      <c r="B200" s="49"/>
-      <c r="C200" s="49"/>
-      <c r="D200" s="49"/>
-      <c r="E200" s="49"/>
+      <c r="A200" s="41"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G200" s="49"/>
+      <c r="G200" s="22"/>
     </row>
     <row r="201" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="50"/>
-      <c r="B201" s="49"/>
-      <c r="C201" s="49"/>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49"/>
+      <c r="A201" s="41"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
       <c r="F201" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G201" s="49"/>
+      <c r="G201" s="22"/>
     </row>
     <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="50">
-        <v>47</v>
-      </c>
-      <c r="B202" s="49" t="s">
+      <c r="A202" s="41">
+        <v>43</v>
+      </c>
+      <c r="B202" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="49" t="s">
+      <c r="D202" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="49" t="s">
+      <c r="E202" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F202" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G202" s="49" t="s">
+      <c r="G202" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A203" s="50"/>
-      <c r="B203" s="49"/>
-      <c r="C203" s="49"/>
-      <c r="D203" s="49"/>
-      <c r="E203" s="49"/>
+      <c r="A203" s="41"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
       <c r="F203" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G203" s="49"/>
+      <c r="G203" s="22"/>
     </row>
     <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="50"/>
-      <c r="B204" s="49"/>
-      <c r="C204" s="49"/>
-      <c r="D204" s="49"/>
-      <c r="E204" s="49"/>
+      <c r="A204" s="41"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
       <c r="F204" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G204" s="49"/>
+      <c r="G204" s="22"/>
     </row>
     <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="50"/>
-      <c r="B205" s="49"/>
-      <c r="C205" s="49"/>
-      <c r="D205" s="49"/>
-      <c r="E205" s="49"/>
+      <c r="A205" s="41"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
       <c r="F205" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G205" s="49"/>
+      <c r="G205" s="22"/>
     </row>
     <row r="206" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="50"/>
-      <c r="B206" s="49"/>
-      <c r="C206" s="49"/>
-      <c r="D206" s="49"/>
-      <c r="E206" s="49"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
       <c r="F206" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G206" s="49"/>
+      <c r="G206" s="22"/>
     </row>
     <row r="207" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="50"/>
-      <c r="B207" s="49"/>
-      <c r="C207" s="49"/>
-      <c r="D207" s="49"/>
-      <c r="E207" s="49"/>
+      <c r="A207" s="41"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
       <c r="F207" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G207" s="49"/>
+      <c r="G207" s="22"/>
     </row>
     <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="50">
-        <v>48</v>
-      </c>
-      <c r="B208" s="49" t="s">
+      <c r="A208" s="41">
+        <v>44</v>
+      </c>
+      <c r="B208" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="49" t="s">
+      <c r="C208" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="49" t="s">
+      <c r="D208" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E208" s="49" t="s">
+      <c r="E208" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G208" s="49" t="s">
+      <c r="G208" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="B209" s="49"/>
-      <c r="C209" s="49"/>
-      <c r="D209" s="49"/>
-      <c r="E209" s="49"/>
+      <c r="A209" s="41"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
       <c r="F209" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G209" s="49"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="50"/>
-      <c r="B210" s="49"/>
-      <c r="C210" s="49"/>
-      <c r="D210" s="49"/>
-      <c r="E210" s="49"/>
+      <c r="A210" s="41"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
       <c r="F210" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G210" s="49"/>
+      <c r="G210" s="22"/>
     </row>
     <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="50"/>
-      <c r="B211" s="49"/>
-      <c r="C211" s="49"/>
-      <c r="D211" s="49"/>
-      <c r="E211" s="49"/>
+      <c r="A211" s="41"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
       <c r="F211" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G211" s="49"/>
+      <c r="G211" s="22"/>
     </row>
     <row r="212" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="50"/>
-      <c r="B212" s="49"/>
-      <c r="C212" s="49"/>
-      <c r="D212" s="49"/>
-      <c r="E212" s="49"/>
+      <c r="A212" s="41"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
       <c r="F212" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G212" s="49"/>
+      <c r="G212" s="22"/>
     </row>
     <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="50"/>
-      <c r="B213" s="49"/>
-      <c r="C213" s="49"/>
-      <c r="D213" s="49"/>
-      <c r="E213" s="49"/>
+      <c r="A213" s="41"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G213" s="49"/>
+      <c r="G213" s="22"/>
     </row>
     <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="50">
-        <v>49</v>
-      </c>
-      <c r="B214" s="49" t="s">
+      <c r="A214" s="41">
+        <v>45</v>
+      </c>
+      <c r="B214" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C214" s="49" t="s">
+      <c r="C214" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="49" t="s">
+      <c r="D214" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="49" t="s">
+      <c r="E214" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G214" s="49" t="s">
+      <c r="G214" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A215" s="50"/>
-      <c r="B215" s="49"/>
-      <c r="C215" s="49"/>
-      <c r="D215" s="49"/>
-      <c r="E215" s="49"/>
+      <c r="A215" s="41"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
       <c r="F215" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G215" s="49"/>
+      <c r="G215" s="22"/>
     </row>
     <row r="216" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="50"/>
-      <c r="B216" s="49"/>
-      <c r="C216" s="49"/>
-      <c r="D216" s="49"/>
-      <c r="E216" s="49"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
       <c r="F216" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G216" s="49"/>
+      <c r="G216" s="22"/>
     </row>
     <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="50"/>
-      <c r="B217" s="49"/>
-      <c r="C217" s="49"/>
-      <c r="D217" s="49"/>
-      <c r="E217" s="49"/>
+      <c r="A217" s="41"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
       <c r="F217" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G217" s="49"/>
+      <c r="G217" s="22"/>
     </row>
     <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="50"/>
-      <c r="B218" s="49"/>
-      <c r="C218" s="49"/>
-      <c r="D218" s="49"/>
-      <c r="E218" s="49"/>
+      <c r="A218" s="41"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
       <c r="F218" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G218" s="49"/>
+      <c r="G218" s="22"/>
     </row>
     <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="50">
-        <v>50</v>
-      </c>
-      <c r="B219" s="49" t="s">
+      <c r="A219" s="41">
+        <v>46</v>
+      </c>
+      <c r="B219" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C219" s="54" t="s">
+      <c r="C219" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="54" t="s">
+      <c r="D219" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E219" s="54" t="s">
+      <c r="E219" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F219" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G219" s="49" t="s">
+      <c r="G219" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="54"/>
-      <c r="D220" s="54"/>
-      <c r="E220" s="54"/>
+      <c r="A220" s="41"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="44"/>
       <c r="F220" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G220" s="49"/>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="50"/>
-      <c r="B221" s="49"/>
-      <c r="C221" s="54"/>
-      <c r="D221" s="54"/>
-      <c r="E221" s="54"/>
+      <c r="A221" s="41"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="44"/>
       <c r="F221" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G221" s="49"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="50"/>
-      <c r="B222" s="49"/>
-      <c r="C222" s="54"/>
-      <c r="D222" s="54"/>
-      <c r="E222" s="54"/>
+      <c r="A222" s="41"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="44"/>
+      <c r="D222" s="44"/>
+      <c r="E222" s="44"/>
       <c r="F222" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G222" s="49"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="19">
-        <v>51</v>
-      </c>
-      <c r="B223" s="22" t="s">
+      <c r="A223" s="29">
+        <v>47</v>
+      </c>
+      <c r="B223" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="D223" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="22" t="s">
+      <c r="E223" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G223" s="34" t="s">
+      <c r="G223" s="47" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="22"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
       <c r="F224" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G224" s="34"/>
+      <c r="G224" s="47"/>
     </row>
     <row r="225" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="19"/>
-      <c r="B225" s="22"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="22"/>
+      <c r="A225" s="29"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
       <c r="F225" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="34"/>
+      <c r="G225" s="47"/>
     </row>
     <row r="226" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="19"/>
-      <c r="B226" s="22"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="22"/>
+      <c r="A226" s="29"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
       <c r="F226" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G226" s="34"/>
+      <c r="G226" s="47"/>
     </row>
     <row r="227" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="50">
-        <v>52</v>
-      </c>
-      <c r="B227" s="49" t="s">
+      <c r="A227" s="41">
+        <v>48</v>
+      </c>
+      <c r="B227" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C227" s="49" t="s">
+      <c r="C227" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="49" t="s">
+      <c r="D227" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="49" t="s">
+      <c r="E227" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F227" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G227" s="49" t="s">
+      <c r="G227" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A228" s="50"/>
-      <c r="B228" s="49"/>
-      <c r="C228" s="49"/>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
+      <c r="A228" s="41"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
       <c r="F228" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G228" s="49"/>
+      <c r="G228" s="22"/>
     </row>
     <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="50"/>
-      <c r="B229" s="49"/>
-      <c r="C229" s="49"/>
-      <c r="D229" s="49"/>
-      <c r="E229" s="49"/>
+      <c r="A229" s="41"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
       <c r="F229" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G229" s="49"/>
+      <c r="G229" s="22"/>
     </row>
     <row r="230" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="50"/>
-      <c r="B230" s="49"/>
-      <c r="C230" s="49"/>
-      <c r="D230" s="49"/>
-      <c r="E230" s="49"/>
+      <c r="A230" s="41"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
       <c r="F230" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G230" s="49"/>
+      <c r="G230" s="22"/>
     </row>
     <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="50">
-        <v>53</v>
-      </c>
-      <c r="B231" s="49" t="s">
+      <c r="A231" s="41">
+        <v>49</v>
+      </c>
+      <c r="B231" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="49" t="s">
+      <c r="D231" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E231" s="49" t="s">
+      <c r="E231" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F231" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G231" s="49" t="s">
+      <c r="G231" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A232" s="50"/>
-      <c r="B232" s="49"/>
-      <c r="C232" s="49"/>
-      <c r="D232" s="49"/>
-      <c r="E232" s="49"/>
+      <c r="A232" s="41"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
       <c r="F232" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G232" s="49"/>
+      <c r="G232" s="22"/>
     </row>
     <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="50"/>
-      <c r="B233" s="49"/>
-      <c r="C233" s="49"/>
-      <c r="D233" s="49"/>
-      <c r="E233" s="49"/>
+      <c r="A233" s="41"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
       <c r="F233" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G233" s="49"/>
+      <c r="G233" s="22"/>
     </row>
     <row r="234" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="50"/>
-      <c r="B234" s="49"/>
-      <c r="C234" s="49"/>
-      <c r="D234" s="49"/>
-      <c r="E234" s="49"/>
+      <c r="A234" s="41"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
       <c r="F234" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G234" s="49"/>
+      <c r="G234" s="22"/>
     </row>
     <row r="235" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="50"/>
-      <c r="B235" s="49"/>
-      <c r="C235" s="49"/>
-      <c r="D235" s="49"/>
-      <c r="E235" s="49"/>
+      <c r="A235" s="41"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
       <c r="F235" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G235" s="49"/>
+      <c r="G235" s="22"/>
     </row>
     <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="50">
-        <v>54</v>
-      </c>
-      <c r="B236" s="49" t="s">
+      <c r="A236" s="41">
+        <v>50</v>
+      </c>
+      <c r="B236" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C236" s="49" t="s">
+      <c r="C236" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="49" t="s">
+      <c r="D236" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E236" s="49" t="s">
+      <c r="E236" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G236" s="49" t="s">
+      <c r="G236" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A237" s="50"/>
-      <c r="B237" s="49"/>
-      <c r="C237" s="49"/>
-      <c r="D237" s="49"/>
-      <c r="E237" s="49"/>
+      <c r="A237" s="41"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="22"/>
       <c r="F237" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G237" s="49"/>
+      <c r="G237" s="22"/>
     </row>
     <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="50"/>
-      <c r="B238" s="49"/>
-      <c r="C238" s="49"/>
-      <c r="D238" s="49"/>
-      <c r="E238" s="49"/>
+      <c r="A238" s="41"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
       <c r="F238" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G238" s="49"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="50"/>
-      <c r="B239" s="49"/>
-      <c r="C239" s="49"/>
-      <c r="D239" s="49"/>
-      <c r="E239" s="49"/>
+      <c r="A239" s="41"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="22"/>
       <c r="F239" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G239" s="49"/>
+      <c r="G239" s="22"/>
     </row>
     <row r="240" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="50"/>
-      <c r="B240" s="49"/>
-      <c r="C240" s="49"/>
-      <c r="D240" s="49"/>
-      <c r="E240" s="49"/>
+      <c r="A240" s="41"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
       <c r="F240" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G240" s="49"/>
+      <c r="G240" s="22"/>
     </row>
     <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="50">
-        <v>55</v>
-      </c>
-      <c r="B241" s="54" t="s">
+      <c r="A241" s="41">
+        <v>51</v>
+      </c>
+      <c r="B241" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C241" s="54" t="s">
+      <c r="C241" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D241" s="49" t="s">
+      <c r="D241" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="54" t="s">
+      <c r="E241" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F241" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G241" s="54" t="s">
+      <c r="G241" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A242" s="50"/>
-      <c r="B242" s="54"/>
-      <c r="C242" s="54"/>
-      <c r="D242" s="49"/>
-      <c r="E242" s="54"/>
+      <c r="A242" s="41"/>
+      <c r="B242" s="44"/>
+      <c r="C242" s="44"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="44"/>
       <c r="F242" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G242" s="54"/>
+      <c r="G242" s="44"/>
     </row>
     <row r="243" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="50"/>
-      <c r="B243" s="54"/>
-      <c r="C243" s="54"/>
-      <c r="D243" s="49"/>
-      <c r="E243" s="54"/>
+      <c r="A243" s="41"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="44"/>
       <c r="F243" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G243" s="54"/>
+      <c r="G243" s="44"/>
     </row>
     <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="50"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="54"/>
-      <c r="D244" s="49"/>
-      <c r="E244" s="54"/>
+      <c r="A244" s="41"/>
+      <c r="B244" s="44"/>
+      <c r="C244" s="44"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="44"/>
       <c r="F244" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G244" s="54"/>
+      <c r="G244" s="44"/>
     </row>
     <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="50"/>
-      <c r="B245" s="54"/>
-      <c r="C245" s="54"/>
-      <c r="D245" s="49"/>
-      <c r="E245" s="54"/>
+      <c r="A245" s="41"/>
+      <c r="B245" s="44"/>
+      <c r="C245" s="44"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="44"/>
       <c r="F245" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G245" s="54"/>
+      <c r="G245" s="44"/>
     </row>
     <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="50">
-        <v>56</v>
-      </c>
-      <c r="B246" s="54" t="s">
+      <c r="A246" s="41">
+        <v>52</v>
+      </c>
+      <c r="B246" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="54" t="s">
+      <c r="C246" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="54" t="s">
+      <c r="D246" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="54" t="s">
+      <c r="E246" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F246" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G246" s="54" t="s">
+      <c r="G246" s="44" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A247" s="50"/>
-      <c r="B247" s="54"/>
-      <c r="C247" s="54"/>
-      <c r="D247" s="54"/>
-      <c r="E247" s="54"/>
+      <c r="A247" s="41"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="44"/>
       <c r="F247" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G247" s="54"/>
+      <c r="G247" s="44"/>
     </row>
     <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="50"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="54"/>
-      <c r="D248" s="54"/>
-      <c r="E248" s="54"/>
+      <c r="A248" s="41"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44"/>
       <c r="F248" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G248" s="54"/>
+      <c r="G248" s="44"/>
     </row>
     <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="50"/>
-      <c r="B249" s="54"/>
-      <c r="C249" s="54"/>
-      <c r="D249" s="54"/>
-      <c r="E249" s="54"/>
+      <c r="A249" s="41"/>
+      <c r="B249" s="44"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="44"/>
+      <c r="E249" s="44"/>
       <c r="F249" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G249" s="54"/>
+      <c r="G249" s="44"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="50"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="54"/>
-      <c r="D250" s="54"/>
-      <c r="E250" s="54"/>
+      <c r="A250" s="41"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="44"/>
       <c r="F250" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G250" s="54"/>
+      <c r="G250" s="44"/>
     </row>
     <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="50">
-        <v>57</v>
-      </c>
-      <c r="B251" s="54" t="s">
+      <c r="A251" s="41">
+        <v>53</v>
+      </c>
+      <c r="B251" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C251" s="54" t="s">
+      <c r="C251" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D251" s="54" t="s">
+      <c r="D251" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E251" s="54" t="s">
+      <c r="E251" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F251" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G251" s="54" t="s">
+      <c r="G251" s="44" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A252" s="50"/>
-      <c r="B252" s="54"/>
-      <c r="C252" s="54"/>
-      <c r="D252" s="54"/>
-      <c r="E252" s="54"/>
+      <c r="A252" s="41"/>
+      <c r="B252" s="44"/>
+      <c r="C252" s="44"/>
+      <c r="D252" s="44"/>
+      <c r="E252" s="44"/>
       <c r="F252" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G252" s="54"/>
+      <c r="G252" s="44"/>
     </row>
     <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="50"/>
-      <c r="B253" s="54"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
+      <c r="A253" s="41"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="44"/>
+      <c r="E253" s="44"/>
       <c r="F253" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G253" s="54"/>
+      <c r="G253" s="44"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="50"/>
-      <c r="B254" s="54"/>
-      <c r="C254" s="54"/>
-      <c r="D254" s="54"/>
-      <c r="E254" s="54"/>
+      <c r="A254" s="41"/>
+      <c r="B254" s="44"/>
+      <c r="C254" s="44"/>
+      <c r="D254" s="44"/>
+      <c r="E254" s="44"/>
       <c r="F254" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G254" s="54"/>
+      <c r="G254" s="44"/>
     </row>
     <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="50">
-        <v>58</v>
-      </c>
-      <c r="B255" s="54" t="s">
+      <c r="A255" s="41">
+        <v>54</v>
+      </c>
+      <c r="B255" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C255" s="54" t="s">
+      <c r="C255" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D255" s="54" t="s">
+      <c r="D255" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E255" s="54" t="s">
+      <c r="E255" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F255" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G255" s="54" t="s">
+      <c r="G255" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A256" s="50"/>
-      <c r="B256" s="54"/>
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
+      <c r="A256" s="41"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="44"/>
+      <c r="D256" s="44"/>
+      <c r="E256" s="44"/>
       <c r="F256" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G256" s="54"/>
+      <c r="G256" s="44"/>
     </row>
     <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="50"/>
-      <c r="B257" s="54"/>
-      <c r="C257" s="54"/>
-      <c r="D257" s="54"/>
-      <c r="E257" s="54"/>
+      <c r="A257" s="41"/>
+      <c r="B257" s="44"/>
+      <c r="C257" s="44"/>
+      <c r="D257" s="44"/>
+      <c r="E257" s="44"/>
       <c r="F257" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G257" s="54"/>
+      <c r="G257" s="44"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="50"/>
-      <c r="B258" s="54"/>
-      <c r="C258" s="54"/>
-      <c r="D258" s="54"/>
-      <c r="E258" s="54"/>
+      <c r="A258" s="41"/>
+      <c r="B258" s="44"/>
+      <c r="C258" s="44"/>
+      <c r="D258" s="44"/>
+      <c r="E258" s="44"/>
       <c r="F258" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G258" s="54"/>
+      <c r="G258" s="44"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="56" t="s">
+      <c r="A259" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B259" s="57"/>
-      <c r="C259" s="57"/>
-      <c r="D259" s="57"/>
-      <c r="E259" s="57"/>
-      <c r="F259" s="57"/>
-      <c r="G259" s="58"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" s="26"/>
+      <c r="G259" s="27"/>
     </row>
     <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="50">
-        <v>89</v>
-      </c>
-      <c r="B260" s="49" t="s">
+      <c r="A260" s="41">
+        <v>55</v>
+      </c>
+      <c r="B260" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C260" s="49" t="s">
+      <c r="C260" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="49" t="s">
+      <c r="D260" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E260" s="49" t="s">
+      <c r="E260" s="22" t="s">
         <v>140</v>
       </c>
       <c r="F260" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G260" s="49" t="s">
+      <c r="G260" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="50"/>
-      <c r="B261" s="49"/>
-      <c r="C261" s="49"/>
-      <c r="D261" s="49"/>
-      <c r="E261" s="49"/>
+      <c r="A261" s="41"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
       <c r="F261" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G261" s="49"/>
+      <c r="G261" s="22"/>
     </row>
     <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="50">
-        <v>90</v>
-      </c>
-      <c r="B262" s="49" t="s">
+      <c r="A262" s="41">
+        <v>56</v>
+      </c>
+      <c r="B262" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C262" s="49" t="s">
+      <c r="C262" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="49" t="s">
+      <c r="D262" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E262" s="49" t="s">
+      <c r="E262" s="22" t="s">
         <v>144</v>
       </c>
       <c r="F262" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G262" s="49" t="s">
+      <c r="G262" s="22" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="50"/>
-      <c r="B263" s="49"/>
-      <c r="C263" s="49"/>
-      <c r="D263" s="49"/>
-      <c r="E263" s="49"/>
+      <c r="A263" s="41"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
       <c r="F263" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G263" s="49"/>
+      <c r="G263" s="22"/>
     </row>
     <row r="264" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="50"/>
-      <c r="B264" s="49"/>
-      <c r="C264" s="49"/>
-      <c r="D264" s="49"/>
-      <c r="E264" s="49"/>
+      <c r="A264" s="41"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
       <c r="F264" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G264" s="49"/>
+      <c r="G264" s="22"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="56" t="s">
+      <c r="A265" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="57"/>
-      <c r="C265" s="57"/>
-      <c r="D265" s="57"/>
-      <c r="E265" s="57"/>
-      <c r="F265" s="57"/>
-      <c r="G265" s="58"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="26"/>
+      <c r="G265" s="27"/>
     </row>
     <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="50">
-        <v>91</v>
-      </c>
-      <c r="B266" s="49" t="s">
+      <c r="A266" s="41">
+        <v>57</v>
+      </c>
+      <c r="B266" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C266" s="49" t="s">
+      <c r="C266" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D266" s="49" t="s">
+      <c r="D266" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E266" s="49" t="s">
+      <c r="E266" s="22" t="s">
         <v>148</v>
       </c>
       <c r="F266" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G266" s="49" t="s">
+      <c r="G266" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="50"/>
-      <c r="B267" s="49"/>
-      <c r="C267" s="49"/>
-      <c r="D267" s="49"/>
-      <c r="E267" s="49"/>
+      <c r="A267" s="41"/>
+      <c r="B267" s="22"/>
+      <c r="C267" s="22"/>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22"/>
       <c r="F267" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G267" s="49"/>
+      <c r="G267" s="22"/>
     </row>
     <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="50">
-        <v>92</v>
-      </c>
-      <c r="B268" s="49" t="s">
+      <c r="A268" s="41">
+        <v>58</v>
+      </c>
+      <c r="B268" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C268" s="49" t="s">
+      <c r="C268" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="49" t="s">
+      <c r="D268" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E268" s="49" t="s">
+      <c r="E268" s="22" t="s">
         <v>148</v>
       </c>
       <c r="F268" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G268" s="49" t="s">
+      <c r="G268" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="50"/>
-      <c r="B269" s="49"/>
-      <c r="C269" s="49"/>
-      <c r="D269" s="49"/>
-      <c r="E269" s="49"/>
+      <c r="A269" s="41"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
       <c r="F269" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G269" s="49"/>
+      <c r="G269" s="22"/>
     </row>
     <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="50">
-        <v>93</v>
-      </c>
-      <c r="B270" s="49" t="s">
+      <c r="A270" s="41">
+        <v>59</v>
+      </c>
+      <c r="B270" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="49" t="s">
+      <c r="D270" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E270" s="49" t="s">
+      <c r="E270" s="22" t="s">
         <v>148</v>
       </c>
       <c r="F270" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G270" s="49" t="s">
+      <c r="G270" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="50"/>
-      <c r="B271" s="49"/>
-      <c r="C271" s="49"/>
-      <c r="D271" s="49"/>
-      <c r="E271" s="49"/>
+      <c r="A271" s="41"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22"/>
       <c r="F271" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G271" s="49"/>
+      <c r="G271" s="22"/>
     </row>
     <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="50">
-        <v>94</v>
-      </c>
-      <c r="B272" s="49" t="s">
+      <c r="A272" s="41">
+        <v>60</v>
+      </c>
+      <c r="B272" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C272" s="49" t="s">
+      <c r="C272" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D272" s="49" t="s">
+      <c r="D272" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E272" s="49" t="s">
+      <c r="E272" s="22" t="s">
         <v>148</v>
       </c>
       <c r="F272" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="G272" s="49" t="s">
+      <c r="G272" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="50"/>
-      <c r="B273" s="49"/>
-      <c r="C273" s="49"/>
-      <c r="D273" s="49"/>
-      <c r="E273" s="49"/>
+      <c r="A273" s="41"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
       <c r="F273" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G273" s="49"/>
+      <c r="G273" s="22"/>
     </row>
     <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="50">
-        <v>95</v>
-      </c>
-      <c r="B274" s="49" t="s">
+      <c r="A274" s="41">
+        <v>61</v>
+      </c>
+      <c r="B274" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C274" s="49" t="s">
+      <c r="C274" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D274" s="49" t="s">
+      <c r="D274" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E274" s="49" t="s">
+      <c r="E274" s="22" t="s">
         <v>148</v>
       </c>
       <c r="F274" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="G274" s="49" t="s">
+      <c r="G274" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="50"/>
-      <c r="B275" s="49"/>
-      <c r="C275" s="49"/>
-      <c r="D275" s="49"/>
-      <c r="E275" s="49"/>
+      <c r="A275" s="41"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
+      <c r="E275" s="22"/>
       <c r="F275" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G275" s="49"/>
+      <c r="G275" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="388">
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A259:G259"/>
-    <mergeCell ref="A265:G265"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="A174:A181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="D174:D181"/>
-    <mergeCell ref="E174:E181"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="C190:C195"/>
-    <mergeCell ref="D190:D195"/>
-    <mergeCell ref="E190:E195"/>
-    <mergeCell ref="A208:A213"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="E208:E213"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="E219:E222"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="D214:D218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="D223:D226"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="D236:D240"/>
-    <mergeCell ref="E236:E240"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="D231:D235"/>
-    <mergeCell ref="E231:E235"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="B246:B250"/>
-    <mergeCell ref="C246:C250"/>
-    <mergeCell ref="D246:D250"/>
-    <mergeCell ref="E246:E250"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="D251:D254"/>
-    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="G262:G264"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="G270:G271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="G272:G273"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="G231:G235"/>
+    <mergeCell ref="G236:G240"/>
+    <mergeCell ref="G241:G245"/>
+    <mergeCell ref="G246:G250"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="G268:G269"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="E262:E264"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="G190:G195"/>
+    <mergeCell ref="G196:G201"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="G143:G146"/>
+    <mergeCell ref="G147:G153"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="G158:G162"/>
+    <mergeCell ref="G163:G167"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="G174:G181"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
     <mergeCell ref="G59:G61"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G16"/>
@@ -5684,112 +5529,267 @@
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="D255:D258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="D251:D254"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="B246:B250"/>
+    <mergeCell ref="C246:C250"/>
+    <mergeCell ref="D246:D250"/>
+    <mergeCell ref="E246:E250"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="D231:D235"/>
+    <mergeCell ref="E231:E235"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="D223:D226"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="E219:E222"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="A208:A213"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="E208:E213"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="D202:D207"/>
+    <mergeCell ref="E202:E207"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="C196:C201"/>
+    <mergeCell ref="D196:D201"/>
+    <mergeCell ref="E196:E201"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="C190:C195"/>
+    <mergeCell ref="D190:D195"/>
+    <mergeCell ref="E190:E195"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="A174:A181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="D174:D181"/>
+    <mergeCell ref="E174:E181"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="E163:E167"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="G143:G146"/>
-    <mergeCell ref="G147:G153"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="G158:G162"/>
-    <mergeCell ref="G163:G167"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="G174:G181"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="G190:G195"/>
-    <mergeCell ref="G196:G201"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="G219:G222"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="G231:G235"/>
-    <mergeCell ref="G236:G240"/>
-    <mergeCell ref="G241:G245"/>
-    <mergeCell ref="G246:G250"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="G268:G269"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="E262:E264"/>
-    <mergeCell ref="G262:G264"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="E270:E271"/>
-    <mergeCell ref="G270:G271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="A265:G265"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A259:G259"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F80:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -326,9 +326,6 @@
     <t>4. Ввести в поле заголовок спецсимвол, цифру, использовать латинские, кириллические, арабские символы</t>
   </si>
   <si>
-    <t>Создание новости с оставлением поле зоголовок пустым</t>
-  </si>
-  <si>
     <t>Форма не принимает значение, возникает alert "Fill empty fields", поле заголовок подсвечивается красным восклицательным знаком в круге</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>1. Кликнуть на ссылку под разделом Terms of use</t>
+  </si>
+  <si>
+    <t>Создание новости с оставлением поле заголовок пустым</t>
   </si>
 </sst>
 </file>
@@ -1251,22 +1251,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,22 +1356,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,69 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A276" sqref="A276"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272:C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,3691 +1717,4055 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="G3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="24" t="s">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="55" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>164</v>
+      <c r="G17" s="37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="52"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>164</v>
+      <c r="G22" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="47"/>
+        <v>159</v>
+      </c>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="47"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="58">
         <v>5</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="22"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="20">
         <v>6</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>7</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="47" t="s">
+      <c r="G37" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="47"/>
+        <v>159</v>
+      </c>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="47"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="41">
+      <c r="A42" s="20">
         <v>8</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="22"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>9</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="47"/>
+        <v>159</v>
+      </c>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="47"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G52" s="47"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="48"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="32"/>
     </row>
     <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>10</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="47"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="47"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" s="47"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="48"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="32"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>11</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="24" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="47"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>12</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="24" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="G63" s="47"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="47"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="48"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>13</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="24" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="47"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="48"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="32"/>
     </row>
     <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>14</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="24" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="47"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="48"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="32"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>15</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" s="19" t="s">
+      <c r="B72" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="46" t="s">
-        <v>173</v>
+      <c r="G72" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="47"/>
+        <v>170</v>
+      </c>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G74" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G75" s="47"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="48"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="32"/>
     </row>
     <row r="77" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>16</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="46" t="s">
-        <v>173</v>
+      <c r="G77" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
       <c r="F78" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G78" s="47"/>
+        <v>175</v>
+      </c>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G79" s="47"/>
+        <v>176</v>
+      </c>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G80" s="47"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="47"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>17</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G82" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G82" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="55"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="35"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>18</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="46" t="s">
-        <v>181</v>
+      <c r="G85" s="23" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="47"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="47"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="47"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="47"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="30"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="48"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="32"/>
     </row>
     <row r="92" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>19</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G93" s="47"/>
+        <v>181</v>
+      </c>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G94" s="47"/>
+        <v>182</v>
+      </c>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>20</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G95" s="46" t="s">
-        <v>185</v>
+      <c r="G95" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G96" s="47"/>
+        <v>183</v>
+      </c>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="41">
+      <c r="A97" s="20">
         <v>21</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="22" t="s">
+      <c r="B97" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="22" t="s">
-        <v>191</v>
+      <c r="G97" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G98" s="22"/>
-    </row>
-    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="15" t="s">
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G99" s="22"/>
-    </row>
-    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="15" t="s">
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="22"/>
-    </row>
-    <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G101" s="22"/>
+      <c r="G101" s="19"/>
     </row>
     <row r="102" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>22</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="47" t="s">
+      <c r="G102" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
       <c r="F103" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G103" s="47"/>
+        <v>191</v>
+      </c>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
       <c r="F104" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="G104" s="47"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="58"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="27"/>
     </row>
     <row r="106" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
         <v>23</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G106" s="46" t="s">
+      <c r="G106" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G107" s="47"/>
+        <v>194</v>
+      </c>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G108" s="47"/>
+        <v>195</v>
+      </c>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>24</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G109" s="46" t="s">
+      <c r="G109" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G110" s="47"/>
+        <v>196</v>
+      </c>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
       <c r="F111" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G111" s="47"/>
+        <v>197</v>
+      </c>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>25</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="46" t="s">
+      <c r="G112" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
       <c r="F113" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G113" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G114" s="47"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G115" s="47"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
       <c r="F116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G116" s="47"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
       <c r="F117" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G117" s="47"/>
+        <v>199</v>
+      </c>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>26</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G118" s="46" t="s">
+      <c r="G118" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G119" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="1:7" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="29"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G120" s="47"/>
+        <v>200</v>
+      </c>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>27</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="46" t="s">
+      <c r="G121" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
       <c r="F122" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G122" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G123" s="47"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="29"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G124" s="47"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>28</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G125" s="46" t="s">
+      <c r="G125" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G126" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G127" s="47"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="29"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G128" s="47"/>
+        <v>201</v>
+      </c>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>29</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G129" s="46" t="s">
+      <c r="G129" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
       <c r="F130" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G130" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="47"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G132" s="47"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="29"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G133" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>30</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="46" t="s">
+      <c r="G134" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G135" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
       <c r="F136" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="47"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G137" s="47"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="29"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
       <c r="F138" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G138" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>31</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G139" s="46" t="s">
+      <c r="G139" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G140" s="47"/>
+        <v>203</v>
+      </c>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
       <c r="F141" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G141" s="47"/>
+        <v>204</v>
+      </c>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="29"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G142" s="47"/>
+        <v>205</v>
+      </c>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>32</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="19" t="s">
+      <c r="E143" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G143" s="46" t="s">
+      <c r="G143" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
       <c r="F144" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G144" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G145" s="47"/>
+        <v>207</v>
+      </c>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
       <c r="F146" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" s="47"/>
+        <v>208</v>
+      </c>
+      <c r="G146" s="22"/>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="41">
+      <c r="A147" s="20">
         <v>33</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="22" t="s">
+      <c r="G147" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
       <c r="F148" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G148" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G148" s="19"/>
     </row>
     <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
       <c r="F149" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G149" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="G149" s="19"/>
     </row>
     <row r="150" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
       <c r="F150" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G150" s="22"/>
+      <c r="G150" s="19"/>
     </row>
     <row r="151" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
       <c r="F151" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G151" s="22"/>
+      <c r="G151" s="19"/>
     </row>
     <row r="152" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
       <c r="F152" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G152" s="22"/>
+      <c r="G152" s="19"/>
     </row>
     <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
       <c r="F153" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G153" s="22"/>
+        <v>210</v>
+      </c>
+      <c r="G153" s="19"/>
     </row>
     <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="29">
         <v>34</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="D154" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G154" s="47" t="s">
+      <c r="G154" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
       <c r="F155" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G155" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="G155" s="22"/>
     </row>
     <row r="156" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
       <c r="F156" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G156" s="47"/>
+        <v>209</v>
+      </c>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="29"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G157" s="47"/>
+        <v>211</v>
+      </c>
+      <c r="G157" s="22"/>
     </row>
     <row r="158" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="42">
+      <c r="A158" s="45">
         <v>35</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C158" s="44" t="s">
+      <c r="C158" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E158" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G158" s="22" t="s">
+      <c r="G158" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
       <c r="F159" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G159" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G159" s="19"/>
     </row>
     <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
       <c r="F160" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G160" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
       <c r="F161" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G161" s="22"/>
+      <c r="G161" s="19"/>
     </row>
     <row r="162" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="45"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G162" s="23"/>
+      <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="41">
+      <c r="A163" s="20">
         <v>36</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="D163" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="22" t="s">
+      <c r="E163" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G163" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A164" s="41"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
       <c r="F164" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G164" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
       <c r="F165" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G165" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="G165" s="19"/>
     </row>
     <row r="166" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
       <c r="F166" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G166" s="22"/>
+      <c r="G166" s="19"/>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
       <c r="F167" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G167" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="G167" s="19"/>
     </row>
     <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="41">
+      <c r="A168" s="20">
         <v>37</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F168" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G168" s="22" t="s">
+      <c r="G168" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
       <c r="F169" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G169" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G169" s="19"/>
     </row>
     <row r="170" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
       <c r="F170" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G170" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="G170" s="19"/>
     </row>
     <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
       <c r="F171" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G171" s="22"/>
+      <c r="G171" s="19"/>
     </row>
     <row r="172" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
       <c r="F172" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G172" s="22"/>
+      <c r="G172" s="19"/>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
       <c r="F173" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G173" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="G173" s="19"/>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="41">
+      <c r="A174" s="20">
         <v>38</v>
       </c>
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="22" t="s">
+      <c r="E174" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F174" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="22"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
       <c r="F175" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G175" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G175" s="19"/>
     </row>
     <row r="176" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="41"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
       <c r="F176" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G176" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="G176" s="19"/>
     </row>
     <row r="177" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="41"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
       <c r="F177" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G177" s="22"/>
+      <c r="G177" s="19"/>
     </row>
     <row r="178" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
-      <c r="B178" s="22"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
       <c r="F178" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G178" s="22"/>
+      <c r="G178" s="19"/>
     </row>
     <row r="179" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
       <c r="F179" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G179" s="22"/>
+      <c r="G179" s="19"/>
     </row>
     <row r="180" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="41"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
       <c r="F180" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G180" s="22"/>
+      <c r="G180" s="19"/>
     </row>
     <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="41"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
       <c r="F181" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" s="22"/>
+        <v>214</v>
+      </c>
+      <c r="G181" s="19"/>
     </row>
     <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="41">
+      <c r="A182" s="20">
         <v>39</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="22" t="s">
+      <c r="E182" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G182" s="22" t="s">
+      <c r="G182" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A183" s="41"/>
-      <c r="B183" s="22"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
       <c r="F183" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G183" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G183" s="19"/>
     </row>
     <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
       <c r="F184" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G184" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="G184" s="19"/>
     </row>
     <row r="185" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="41"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
       <c r="F185" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G185" s="22"/>
+      <c r="G185" s="19"/>
     </row>
     <row r="186" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="41">
+      <c r="A186" s="20">
         <v>40</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C186" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D186" s="22" t="s">
+      <c r="C186" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E186" s="22" t="s">
+      <c r="E186" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="22" t="s">
-        <v>173</v>
+      <c r="G186" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A187" s="41"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
       <c r="F187" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G187" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G187" s="19"/>
     </row>
     <row r="188" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="41"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
       <c r="F188" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G188" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="G188" s="19"/>
     </row>
     <row r="189" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="41"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="22"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
       <c r="F189" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G189" s="22"/>
+      <c r="G189" s="19"/>
     </row>
     <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="41">
+      <c r="A190" s="20">
         <v>41</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C190" s="22" t="s">
+      <c r="B190" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="22" t="s">
+      <c r="E190" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G190" s="22" t="s">
+      <c r="G190" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G191" s="19"/>
+    </row>
+    <row r="192" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G192" s="19"/>
+    </row>
+    <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G191" s="22"/>
-    </row>
-    <row r="192" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="41"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G192" s="22"/>
-    </row>
-    <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="41"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="15" t="s">
+      <c r="G193" s="19"/>
+    </row>
+    <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G193" s="22"/>
-    </row>
-    <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="41"/>
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="15" t="s">
+      <c r="G194" s="19"/>
+    </row>
+    <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G195" s="19"/>
+    </row>
+    <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="20">
+        <v>42</v>
+      </c>
+      <c r="B196" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G194" s="22"/>
-    </row>
-    <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="41"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G195" s="22"/>
-    </row>
-    <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="41">
-        <v>42</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="G196" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G197" s="19"/>
+    </row>
+    <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G198" s="19"/>
+    </row>
+    <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G199" s="19"/>
+    </row>
+    <row r="200" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A197" s="41"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G197" s="22"/>
-    </row>
-    <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="41"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G198" s="22"/>
-    </row>
-    <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="41"/>
-      <c r="B199" s="22"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G199" s="22"/>
-    </row>
-    <row r="200" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="41"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="15" t="s">
+      <c r="G200" s="19"/>
+    </row>
+    <row r="201" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="20"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G201" s="19"/>
+    </row>
+    <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="20">
+        <v>43</v>
+      </c>
+      <c r="B202" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G200" s="22"/>
-    </row>
-    <row r="201" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="41"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G201" s="22"/>
-    </row>
-    <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="41">
-        <v>43</v>
-      </c>
-      <c r="B202" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="22" t="s">
+      <c r="D202" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="22" t="s">
+      <c r="E202" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F202" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G202" s="22" t="s">
+      <c r="G202" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A203" s="20"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G203" s="19"/>
+    </row>
+    <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G204" s="19"/>
+    </row>
+    <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G205" s="19"/>
+    </row>
+    <row r="206" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A203" s="41"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G203" s="22"/>
-    </row>
-    <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="41"/>
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G204" s="22"/>
-    </row>
-    <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="41"/>
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G205" s="22"/>
-    </row>
-    <row r="206" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="41"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="15" t="s">
+      <c r="G206" s="19"/>
+    </row>
+    <row r="207" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G207" s="19"/>
+    </row>
+    <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="20">
+        <v>44</v>
+      </c>
+      <c r="B208" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G206" s="22"/>
-    </row>
-    <row r="207" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="41"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G207" s="22"/>
-    </row>
-    <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="41">
-        <v>44</v>
-      </c>
-      <c r="B208" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G208" s="22" t="s">
+      <c r="G208" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G209" s="19"/>
+    </row>
+    <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="20"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G210" s="19"/>
+    </row>
+    <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G211" s="19"/>
+    </row>
+    <row r="212" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="22"/>
-      <c r="F209" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G209" s="22"/>
-    </row>
-    <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="41"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="E210" s="22"/>
-      <c r="F210" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G210" s="22"/>
-    </row>
-    <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="41"/>
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G211" s="22"/>
-    </row>
-    <row r="212" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="41"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="22"/>
-      <c r="F212" s="15" t="s">
+      <c r="G212" s="19"/>
+    </row>
+    <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G213" s="19"/>
+    </row>
+    <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="20">
+        <v>45</v>
+      </c>
+      <c r="B214" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G212" s="22"/>
-    </row>
-    <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="41"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G213" s="22"/>
-    </row>
-    <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="41">
-        <v>45</v>
-      </c>
-      <c r="B214" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="D214" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G214" s="22" t="s">
+      <c r="G214" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G215" s="19"/>
+    </row>
+    <row r="216" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="20"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G216" s="19"/>
+    </row>
+    <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
-      <c r="F215" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G215" s="22"/>
-    </row>
-    <row r="216" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="41"/>
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G216" s="22"/>
-    </row>
-    <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="41"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="15" t="s">
+      <c r="G217" s="19"/>
+    </row>
+    <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G218" s="19"/>
+    </row>
+    <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="20">
+        <v>46</v>
+      </c>
+      <c r="B219" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G217" s="22"/>
-    </row>
-    <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="41"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G218" s="22"/>
-    </row>
-    <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="41">
-        <v>46</v>
-      </c>
-      <c r="B219" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C219" s="44" t="s">
+      <c r="C219" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="44" t="s">
+      <c r="D219" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E219" s="44" t="s">
+      <c r="E219" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F219" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G219" s="22" t="s">
+      <c r="G219" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A220" s="41"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="44"/>
-      <c r="E220" s="44"/>
+      <c r="A220" s="20"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
       <c r="F220" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G220" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="G220" s="19"/>
     </row>
     <row r="221" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="44"/>
-      <c r="E221" s="44"/>
+      <c r="A221" s="20"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G221" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="G221" s="19"/>
     </row>
     <row r="222" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="41"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="44"/>
-      <c r="E222" s="44"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="19"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
       <c r="F222" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G222" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="G222" s="19"/>
     </row>
     <row r="223" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="29">
         <v>47</v>
       </c>
-      <c r="B223" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C223" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D223" s="20" t="s">
+      <c r="B223" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D223" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="20" t="s">
+      <c r="E223" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G223" s="47" t="s">
-        <v>173</v>
+      <c r="G223" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="20"/>
-      <c r="E224" s="20"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="44"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="31"/>
       <c r="F224" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G224" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="G224" s="22"/>
     </row>
     <row r="225" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="44"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="31"/>
       <c r="F225" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G225" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="44"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31"/>
       <c r="F226" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G226" s="22"/>
+    </row>
+    <row r="227" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="20">
+        <v>48</v>
+      </c>
+      <c r="B227" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G226" s="47"/>
-    </row>
-    <row r="227" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="41">
-        <v>48</v>
-      </c>
-      <c r="B227" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="22" t="s">
+      <c r="D227" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="22" t="s">
+      <c r="E227" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F227" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G227" s="22" t="s">
+      <c r="G227" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A228" s="20"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G228" s="19"/>
+    </row>
+    <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G229" s="19"/>
+    </row>
+    <row r="230" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A228" s="41"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G228" s="22"/>
-    </row>
-    <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="41"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
-      <c r="E229" s="22"/>
-      <c r="F229" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G229" s="22"/>
-    </row>
-    <row r="230" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="41"/>
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
-      <c r="D230" s="22"/>
-      <c r="E230" s="22"/>
-      <c r="F230" s="15" t="s">
+      <c r="G230" s="19"/>
+    </row>
+    <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="20">
+        <v>49</v>
+      </c>
+      <c r="B231" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G230" s="22"/>
-    </row>
-    <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="41">
-        <v>49</v>
-      </c>
-      <c r="B231" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C231" s="22" t="s">
+      <c r="C231" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E231" s="22" t="s">
+      <c r="E231" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F231" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G231" s="22" t="s">
+      <c r="G231" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G232" s="19"/>
+    </row>
+    <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G233" s="19"/>
+    </row>
+    <row r="234" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G234" s="19"/>
+    </row>
+    <row r="235" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="20"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G235" s="19"/>
+    </row>
+    <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="20">
+        <v>50</v>
+      </c>
+      <c r="B236" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A232" s="41"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G232" s="22"/>
-    </row>
-    <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="41"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
-      <c r="E233" s="22"/>
-      <c r="F233" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G233" s="22"/>
-    </row>
-    <row r="234" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="41"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G234" s="22"/>
-    </row>
-    <row r="235" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="41"/>
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G235" s="22"/>
-    </row>
-    <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="41">
-        <v>50</v>
-      </c>
-      <c r="B236" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="22" t="s">
+      <c r="D236" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E236" s="22" t="s">
+      <c r="E236" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G236" s="22" t="s">
+      <c r="G236" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A237" s="20"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
+      <c r="E237" s="19"/>
+      <c r="F237" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G237" s="19"/>
+    </row>
+    <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G238" s="19"/>
+    </row>
+    <row r="239" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="20"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G237" s="22"/>
-    </row>
-    <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="15" t="s">
+      <c r="G239" s="19"/>
+    </row>
+    <row r="240" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="19"/>
+      <c r="E240" s="19"/>
+      <c r="F240" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G238" s="22"/>
-    </row>
-    <row r="239" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="41"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
-      <c r="E239" s="22"/>
-      <c r="F239" s="15" t="s">
+      <c r="G240" s="19"/>
+    </row>
+    <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="20">
+        <v>51</v>
+      </c>
+      <c r="B241" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G239" s="22"/>
-    </row>
-    <row r="240" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="41"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
-      <c r="E240" s="22"/>
-      <c r="F240" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G240" s="22"/>
-    </row>
-    <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="41">
-        <v>51</v>
-      </c>
-      <c r="B241" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C241" s="44" t="s">
+      <c r="C241" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D241" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="44" t="s">
+      <c r="E241" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F241" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G241" s="44" t="s">
-        <v>104</v>
+      <c r="G241" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A242" s="41"/>
-      <c r="B242" s="44"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="22"/>
-      <c r="E242" s="44"/>
+      <c r="A242" s="20"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
+      <c r="D242" s="19"/>
+      <c r="E242" s="21"/>
       <c r="F242" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G242" s="44"/>
+        <v>206</v>
+      </c>
+      <c r="G242" s="21"/>
     </row>
     <row r="243" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="41"/>
-      <c r="B243" s="44"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="22"/>
-      <c r="E243" s="44"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="21"/>
       <c r="F243" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G243" s="21"/>
+    </row>
+    <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="20"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G244" s="21"/>
+    </row>
+    <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="20"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G243" s="44"/>
-    </row>
-    <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="41"/>
-      <c r="B244" s="44"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="22"/>
-      <c r="E244" s="44"/>
-      <c r="F244" s="16" t="s">
+      <c r="G245" s="21"/>
+    </row>
+    <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="20">
+        <v>52</v>
+      </c>
+      <c r="B246" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G244" s="44"/>
-    </row>
-    <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="41"/>
-      <c r="B245" s="44"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="22"/>
-      <c r="E245" s="44"/>
-      <c r="F245" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G245" s="44"/>
-    </row>
-    <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="41">
-        <v>52</v>
-      </c>
-      <c r="B246" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C246" s="44" t="s">
+      <c r="C246" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="44" t="s">
+      <c r="D246" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="44" t="s">
+      <c r="E246" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F246" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G246" s="44" t="s">
+      <c r="G246" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A247" s="20"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G247" s="21"/>
+    </row>
+    <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G248" s="21"/>
+    </row>
+    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="20"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G249" s="21"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="20"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G250" s="21"/>
+    </row>
+    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="20">
+        <v>53</v>
+      </c>
+      <c r="B251" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A247" s="41"/>
-      <c r="B247" s="44"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="44"/>
-      <c r="E247" s="44"/>
-      <c r="F247" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G247" s="44"/>
-    </row>
-    <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="41"/>
-      <c r="B248" s="44"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="44"/>
-      <c r="F248" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G248" s="44"/>
-    </row>
-    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
-      <c r="B249" s="44"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="44"/>
-      <c r="E249" s="44"/>
-      <c r="F249" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G249" s="44"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="41"/>
-      <c r="B250" s="44"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="44"/>
-      <c r="E250" s="44"/>
-      <c r="F250" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G250" s="44"/>
-    </row>
-    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="41">
-        <v>53</v>
-      </c>
-      <c r="B251" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C251" s="44" t="s">
+      <c r="C251" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D251" s="44" t="s">
+      <c r="D251" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E251" s="44" t="s">
+      <c r="E251" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F251" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G251" s="44" t="s">
+      <c r="G251" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A252" s="20"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G252" s="21"/>
+    </row>
+    <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="20"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G253" s="21"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="20"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G254" s="21"/>
+    </row>
+    <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="20">
+        <v>54</v>
+      </c>
+      <c r="B255" s="21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A252" s="41"/>
-      <c r="B252" s="44"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="44"/>
-      <c r="E252" s="44"/>
-      <c r="F252" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G252" s="44"/>
-    </row>
-    <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="41"/>
-      <c r="B253" s="44"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="44"/>
-      <c r="E253" s="44"/>
-      <c r="F253" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G253" s="44"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="41"/>
-      <c r="B254" s="44"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="44"/>
-      <c r="E254" s="44"/>
-      <c r="F254" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G254" s="44"/>
-    </row>
-    <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="41">
-        <v>54</v>
-      </c>
-      <c r="B255" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C255" s="44" t="s">
+      <c r="C255" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D255" s="44" t="s">
+      <c r="D255" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E255" s="44" t="s">
+      <c r="E255" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F255" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G255" s="44" t="s">
+      <c r="G255" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G256" s="21"/>
+    </row>
+    <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G257" s="21"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G258" s="21"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B259" s="52"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="52"/>
+      <c r="G259" s="53"/>
+    </row>
+    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="20">
+        <v>55</v>
+      </c>
+      <c r="B260" s="19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A256" s="41"/>
-      <c r="B256" s="44"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="44"/>
-      <c r="E256" s="44"/>
-      <c r="F256" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G256" s="44"/>
-    </row>
-    <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="41"/>
-      <c r="B257" s="44"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="44"/>
-      <c r="E257" s="44"/>
-      <c r="F257" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G257" s="44"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="41"/>
-      <c r="B258" s="44"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="44"/>
-      <c r="E258" s="44"/>
-      <c r="F258" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G258" s="44"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="25" t="s">
+      <c r="C260" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F260" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="26"/>
-      <c r="G259" s="27"/>
-    </row>
-    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="41">
-        <v>55</v>
-      </c>
-      <c r="B260" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C260" s="22" t="s">
+      <c r="G260" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="20"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G261" s="19"/>
+    </row>
+    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="20">
+        <v>56</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C262" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="22" t="s">
+      <c r="D262" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E260" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F260" s="15" t="s">
+      <c r="E262" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G262" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="20"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G260" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="41"/>
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G261" s="22"/>
-    </row>
-    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="41">
-        <v>56</v>
-      </c>
-      <c r="B262" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C262" s="22" t="s">
+      <c r="G263" s="19"/>
+    </row>
+    <row r="264" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="20"/>
+      <c r="B264" s="19"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="19"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G264" s="19"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B265" s="52"/>
+      <c r="C265" s="52"/>
+      <c r="D265" s="52"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="52"/>
+      <c r="G265" s="53"/>
+    </row>
+    <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="20">
+        <v>57</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C266" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="22" t="s">
+      <c r="D266" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E262" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F262" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G262" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="41"/>
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
-      <c r="D263" s="22"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G263" s="22"/>
-    </row>
-    <row r="264" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="41"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
-      <c r="E264" s="22"/>
-      <c r="F264" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G264" s="22"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="25" t="s">
+      <c r="E266" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F266" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="26"/>
-      <c r="G265" s="27"/>
-    </row>
-    <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="41">
-        <v>57</v>
-      </c>
-      <c r="B266" s="22" t="s">
+      <c r="G266" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="20"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G267" s="19"/>
+    </row>
+    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="20">
+        <v>58</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="F268" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G268" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="20"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G269" s="19"/>
+    </row>
+    <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="20">
+        <v>59</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C270" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D266" s="22" t="s">
+      <c r="D270" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E266" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F266" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G266" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="41"/>
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="15" t="s">
+      <c r="E270" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F270" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G267" s="22"/>
-    </row>
-    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="41">
-        <v>58</v>
-      </c>
-      <c r="B268" s="22" t="s">
+      <c r="G270" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C268" s="22" t="s">
+    </row>
+    <row r="271" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="20"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G271" s="19"/>
+    </row>
+    <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A272" s="20">
+        <v>60</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C272" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D272" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E268" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F268" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G268" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="41"/>
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="22"/>
-      <c r="F269" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G269" s="22"/>
-    </row>
-    <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="41">
-        <v>59</v>
-      </c>
-      <c r="B270" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C270" s="22" t="s">
+      <c r="E272" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G272" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="20"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G273" s="19"/>
+    </row>
+    <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A274" s="20">
+        <v>61</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C274" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D274" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E270" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F270" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G270" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="41"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="15" t="s">
+      <c r="E274" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F274" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G271" s="22"/>
-    </row>
-    <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="41">
-        <v>60</v>
-      </c>
-      <c r="B272" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E272" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F272" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G272" s="22" t="s">
+      <c r="G274" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="20"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
+      <c r="F275" s="16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="41"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="22"/>
-      <c r="F273" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G273" s="22"/>
-    </row>
-    <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="41">
-        <v>61</v>
-      </c>
-      <c r="B274" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E274" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F274" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G274" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="41"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="22"/>
-      <c r="F275" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G275" s="22"/>
+      <c r="G275" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="388">
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A259:G259"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="A265:G265"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="E163:E167"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="A174:A181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="D174:D181"/>
+    <mergeCell ref="E174:E181"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="C196:C201"/>
+    <mergeCell ref="D196:D201"/>
+    <mergeCell ref="E196:E201"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="C190:C195"/>
+    <mergeCell ref="D190:D195"/>
+    <mergeCell ref="E190:E195"/>
+    <mergeCell ref="A208:A213"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="E208:E213"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="D202:D207"/>
+    <mergeCell ref="E202:E207"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="E219:E222"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="D223:D226"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="D231:D235"/>
+    <mergeCell ref="E231:E235"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="B246:B250"/>
+    <mergeCell ref="C246:C250"/>
+    <mergeCell ref="D246:D250"/>
+    <mergeCell ref="E246:E250"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="D255:D258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="D251:D254"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="G42:G48"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="G143:G146"/>
+    <mergeCell ref="G147:G153"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="G158:G162"/>
+    <mergeCell ref="G163:G167"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="G174:G181"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="G190:G195"/>
+    <mergeCell ref="G196:G201"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="G231:G235"/>
+    <mergeCell ref="G236:G240"/>
+    <mergeCell ref="G241:G245"/>
+    <mergeCell ref="G246:G250"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="G268:G269"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="E262:E264"/>
     <mergeCell ref="G262:G264"/>
     <mergeCell ref="A274:A275"/>
     <mergeCell ref="B274:B275"/>
@@ -5426,370 +5790,6 @@
     <mergeCell ref="C266:C267"/>
     <mergeCell ref="D266:D267"/>
     <mergeCell ref="E266:E267"/>
-    <mergeCell ref="G231:G235"/>
-    <mergeCell ref="G236:G240"/>
-    <mergeCell ref="G241:G245"/>
-    <mergeCell ref="G246:G250"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="G268:G269"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="E262:E264"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="G190:G195"/>
-    <mergeCell ref="G196:G201"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="G219:G222"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="G143:G146"/>
-    <mergeCell ref="G147:G153"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="G158:G162"/>
-    <mergeCell ref="G163:G167"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="G174:G181"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="G42:G48"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="D251:D254"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="B246:B250"/>
-    <mergeCell ref="C246:C250"/>
-    <mergeCell ref="D246:D250"/>
-    <mergeCell ref="E246:E250"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="D236:D240"/>
-    <mergeCell ref="E236:E240"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="D231:D235"/>
-    <mergeCell ref="E231:E235"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="D223:D226"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="E219:E222"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="D214:D218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="A208:A213"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="E208:E213"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="C190:C195"/>
-    <mergeCell ref="D190:D195"/>
-    <mergeCell ref="E190:E195"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="A174:A181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="D174:D181"/>
-    <mergeCell ref="E174:E181"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A265:G265"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A259:G259"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F80:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>Создание новости с оставлением поле заголовок пустым</t>
+  </si>
+  <si>
+    <t>Изменение новости  из панели редактирования (Control panel)</t>
+  </si>
+  <si>
+    <t>4. Изненить поле описание (test)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1190,12 +1196,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1251,23 +1281,119 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1278,97 +1404,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1676,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272:C273"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246:C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,2127 +1771,2127 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="32"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="54" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="39">
         <v>3</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="51" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="19" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="39"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="35">
         <v>4</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="47" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="54" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="37">
         <v>5</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="42">
         <v>6</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="36">
         <v>7</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="19" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="22"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="42">
         <v>8</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="36">
         <v>9</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="22"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="19" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G52" s="22"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="32"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="35">
         <v>10</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="22"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="22"/>
+      <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="19" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G57" s="22"/>
+      <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="32"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+      <c r="A59" s="35">
         <v>11</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="54" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="22"/>
+      <c r="G60" s="48"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="32"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62" s="35">
         <v>12</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="54" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G63" s="22"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="22"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="48"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="32"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="49"/>
     </row>
     <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66" s="35">
         <v>13</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="54" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="22"/>
+      <c r="G67" s="48"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="49"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="32"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
+      <c r="A69" s="35">
         <v>14</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="47" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="54" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="22"/>
+      <c r="G70" s="48"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="49"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
+      <c r="A72" s="35">
         <v>15</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="47" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G73" s="22"/>
+      <c r="G73" s="48"/>
     </row>
     <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G74" s="22"/>
+      <c r="G74" s="48"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="19" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G75" s="22"/>
+      <c r="G75" s="48"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="49"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="24"/>
-      <c r="G76" s="32"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="28">
+      <c r="A77" s="35">
         <v>16</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="47" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G78" s="22"/>
+      <c r="G78" s="48"/>
     </row>
     <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="22"/>
+      <c r="G79" s="48"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="19" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G80" s="22"/>
+      <c r="G80" s="48"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="24"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="28">
+      <c r="A82" s="35">
         <v>17</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G83" s="22"/>
+      <c r="G83" s="48"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28">
+      <c r="A85" s="35">
         <v>18</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="47" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="22"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="48"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="22"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="48"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="22"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="48"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="22"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="48"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="22"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="48"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="49"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="32"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="49"/>
     </row>
     <row r="92" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+      <c r="A92" s="35">
         <v>19</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
       <c r="F93" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G93" s="22"/>
+      <c r="G93" s="48"/>
     </row>
     <row r="94" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="22"/>
+      <c r="G94" s="48"/>
     </row>
     <row r="95" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="28">
+      <c r="A95" s="35">
         <v>20</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="47" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G96" s="22"/>
+      <c r="G96" s="48"/>
     </row>
     <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
+      <c r="A97" s="42">
         <v>21</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="23" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="G98" s="19"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G100" s="19"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G101" s="19"/>
+      <c r="G101" s="23"/>
     </row>
     <row r="102" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
+      <c r="A102" s="36">
         <v>22</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G103" s="22"/>
+      <c r="G103" s="48"/>
     </row>
     <row r="104" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="29"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
       <c r="F104" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G104" s="22"/>
+      <c r="G104" s="48"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="27"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="28">
+      <c r="A106" s="35">
         <v>23</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
       <c r="F107" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G107" s="22"/>
+      <c r="G107" s="48"/>
     </row>
     <row r="108" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
       <c r="F108" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G108" s="22"/>
+      <c r="G108" s="48"/>
     </row>
     <row r="109" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="28">
+      <c r="A109" s="35">
         <v>24</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G110" s="22"/>
+      <c r="G110" s="48"/>
     </row>
     <row r="111" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="29"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
       <c r="F111" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G111" s="22"/>
+      <c r="G111" s="48"/>
     </row>
     <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="28">
+      <c r="A112" s="35">
         <v>25</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
       <c r="F113" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G113" s="22"/>
+      <c r="G113" s="48"/>
     </row>
     <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G114" s="22"/>
+      <c r="G114" s="48"/>
     </row>
     <row r="115" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G115" s="22"/>
+      <c r="G115" s="48"/>
     </row>
     <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G116" s="22"/>
+      <c r="G116" s="48"/>
     </row>
     <row r="117" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G117" s="22"/>
+      <c r="G117" s="48"/>
     </row>
     <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="28">
+      <c r="A118" s="35">
         <v>26</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G119" s="22"/>
+      <c r="G119" s="48"/>
     </row>
     <row r="120" spans="1:7" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="29"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G120" s="22"/>
+      <c r="G120" s="48"/>
     </row>
     <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="28">
+      <c r="A121" s="35">
         <v>27</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
       <c r="F122" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G122" s="22"/>
+      <c r="G122" s="48"/>
     </row>
     <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
       <c r="F123" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G123" s="22"/>
+      <c r="G123" s="48"/>
     </row>
     <row r="124" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="29"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G124" s="22"/>
+      <c r="G124" s="48"/>
     </row>
     <row r="125" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="28">
+      <c r="A125" s="35">
         <v>28</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="30" t="s">
+      <c r="D125" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G126" s="22"/>
+      <c r="G126" s="48"/>
     </row>
     <row r="127" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
       <c r="F127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G127" s="22"/>
+      <c r="G127" s="48"/>
     </row>
     <row r="128" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
       <c r="F128" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G128" s="22"/>
+      <c r="G128" s="48"/>
     </row>
     <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="28">
+      <c r="A129" s="35">
         <v>29</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="30" t="s">
+      <c r="D129" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G129" s="23" t="s">
+      <c r="G129" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
       <c r="F130" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G130" s="22"/>
+      <c r="G130" s="48"/>
     </row>
     <row r="131" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
       <c r="F131" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="22"/>
+      <c r="G131" s="48"/>
     </row>
     <row r="132" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
       <c r="F132" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G132" s="22"/>
+      <c r="G132" s="48"/>
     </row>
     <row r="133" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
       <c r="F133" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G133" s="22"/>
+      <c r="G133" s="48"/>
     </row>
     <row r="134" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="28">
+      <c r="A134" s="35">
         <v>30</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="30" t="s">
+      <c r="D134" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="30" t="s">
+      <c r="E134" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="23" t="s">
+      <c r="G134" s="47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
       <c r="F135" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G135" s="22"/>
+      <c r="G135" s="48"/>
     </row>
     <row r="136" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
       <c r="F136" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="22"/>
+      <c r="G136" s="48"/>
     </row>
     <row r="137" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
       <c r="F137" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G137" s="22"/>
+      <c r="G137" s="48"/>
     </row>
     <row r="138" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="29"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
       <c r="F138" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G138" s="22"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="28">
+      <c r="A139" s="35">
         <v>31</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="30" t="s">
+      <c r="C139" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="G139" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
       <c r="F140" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G140" s="22"/>
+      <c r="G140" s="48"/>
     </row>
     <row r="141" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
       <c r="F141" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G141" s="22"/>
+      <c r="G141" s="48"/>
     </row>
     <row r="142" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="29"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
       <c r="F142" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G142" s="22"/>
+      <c r="G142" s="48"/>
     </row>
     <row r="143" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="28">
+      <c r="A143" s="35">
         <v>32</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="30" t="s">
+      <c r="D143" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="30" t="s">
+      <c r="E143" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G143" s="23" t="s">
+      <c r="G143" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
       <c r="F144" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G144" s="22"/>
+      <c r="G144" s="48"/>
     </row>
     <row r="145" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
       <c r="F145" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G145" s="22"/>
+      <c r="G145" s="48"/>
     </row>
     <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
       <c r="F146" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G146" s="22"/>
+      <c r="G146" s="48"/>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="20">
+      <c r="A147" s="42">
         <v>33</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E147" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
       <c r="F148" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G148" s="19"/>
+      <c r="G148" s="23"/>
     </row>
     <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
+      <c r="A149" s="42"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
       <c r="F149" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G149" s="19"/>
+      <c r="G149" s="23"/>
     </row>
     <row r="150" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
       <c r="F150" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G150" s="19"/>
+      <c r="G150" s="23"/>
     </row>
     <row r="151" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
       <c r="F151" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G151" s="19"/>
+      <c r="G151" s="23"/>
     </row>
     <row r="152" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
       <c r="F152" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G152" s="19"/>
+      <c r="G152" s="23"/>
     </row>
     <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
       <c r="F153" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G153" s="19"/>
+      <c r="G153" s="23"/>
     </row>
     <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="29">
+      <c r="A154" s="36">
         <v>34</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="31" t="s">
+      <c r="E154" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G154" s="22" t="s">
+      <c r="G154" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G155" s="22"/>
+      <c r="G155" s="48"/>
     </row>
     <row r="156" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G156" s="22"/>
+      <c r="G156" s="48"/>
     </row>
     <row r="157" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="29"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="31"/>
+      <c r="A157" s="36"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
       <c r="F157" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="G157" s="22"/>
+      <c r="G157" s="48"/>
     </row>
     <row r="158" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="45">
+      <c r="A158" s="43">
         <v>35</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="19" t="s">
+      <c r="E158" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G158" s="19" t="s">
+      <c r="G158" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
       <c r="F159" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G159" s="19"/>
+      <c r="G159" s="23"/>
     </row>
     <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="46"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
       <c r="F160" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G160" s="19"/>
+      <c r="G160" s="23"/>
     </row>
     <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="46"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
       <c r="F161" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G161" s="19"/>
+      <c r="G161" s="23"/>
     </row>
     <row r="162" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="46"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="24"/>
-      <c r="C162" s="47"/>
+      <c r="C162" s="46"/>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
       <c r="F162" s="17" t="s">
@@ -3846,1812 +3900,1744 @@
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="20">
+      <c r="A163" s="42">
         <v>36</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G163" s="19" t="s">
+      <c r="G163" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
       <c r="F164" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G164" s="19"/>
+      <c r="G164" s="23"/>
     </row>
     <row r="165" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
       <c r="F165" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G165" s="19"/>
+      <c r="G165" s="23"/>
     </row>
     <row r="166" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
       <c r="F166" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G166" s="19"/>
+      <c r="G166" s="23"/>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
       <c r="F167" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G167" s="19"/>
+      <c r="G167" s="23"/>
     </row>
     <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="20">
+      <c r="A168" s="42">
         <v>37</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C168" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="19" t="s">
+      <c r="E168" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F168" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G168" s="19" t="s">
+      <c r="G168" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
       <c r="F169" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G169" s="19"/>
+      <c r="G169" s="23"/>
     </row>
     <row r="170" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
       <c r="F170" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G170" s="19"/>
+      <c r="G170" s="23"/>
     </row>
     <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
       <c r="F171" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G171" s="19"/>
+      <c r="G171" s="23"/>
     </row>
     <row r="172" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
       <c r="F172" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G172" s="19"/>
+      <c r="G172" s="23"/>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
       <c r="F173" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G173" s="19"/>
+      <c r="G173" s="23"/>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
+      <c r="A174" s="42">
         <v>38</v>
       </c>
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="19" t="s">
+      <c r="E174" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F174" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="19" t="s">
+      <c r="G174" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
       <c r="F175" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G175" s="19"/>
+      <c r="G175" s="23"/>
     </row>
     <row r="176" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
       <c r="F176" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G176" s="19"/>
+      <c r="G176" s="23"/>
     </row>
     <row r="177" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
       <c r="F177" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G177" s="19"/>
+      <c r="G177" s="23"/>
     </row>
     <row r="178" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
       <c r="F178" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G178" s="19"/>
+      <c r="G178" s="23"/>
     </row>
     <row r="179" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
       <c r="F179" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G179" s="19"/>
+      <c r="G179" s="23"/>
     </row>
     <row r="180" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
+      <c r="A180" s="42"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
       <c r="F180" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G180" s="19"/>
+      <c r="G180" s="23"/>
     </row>
     <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
       <c r="F181" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G181" s="19"/>
+      <c r="G181" s="23"/>
     </row>
     <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="20">
+      <c r="A182" s="42">
         <v>39</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="19" t="s">
+      <c r="E182" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G182" s="19" t="s">
+      <c r="G182" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
       <c r="F183" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G183" s="19"/>
+      <c r="G183" s="23"/>
     </row>
     <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
       <c r="F184" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G184" s="19"/>
+      <c r="G184" s="23"/>
     </row>
     <row r="185" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
       <c r="F185" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G185" s="19"/>
+      <c r="G185" s="23"/>
     </row>
     <row r="186" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="20">
+      <c r="A186" s="42">
         <v>40</v>
       </c>
-      <c r="B186" s="19" t="s">
+      <c r="B186" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D186" s="19" t="s">
+      <c r="D186" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E186" s="19" t="s">
+      <c r="E186" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="19" t="s">
+      <c r="G186" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
       <c r="F187" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G187" s="19"/>
+      <c r="G187" s="23"/>
     </row>
     <row r="188" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
       <c r="F188" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G188" s="19"/>
+      <c r="G188" s="23"/>
     </row>
     <row r="189" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
       <c r="F189" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G189" s="19"/>
+      <c r="G189" s="23"/>
     </row>
     <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="20">
+      <c r="A190" s="42">
         <v>41</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C190" s="19" t="s">
+      <c r="C190" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D190" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="19" t="s">
+      <c r="E190" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G190" s="19" t="s">
+      <c r="G190" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
       <c r="F191" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G191" s="19"/>
+      <c r="G191" s="23"/>
     </row>
     <row r="192" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
       <c r="F192" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G192" s="19"/>
+      <c r="G192" s="23"/>
     </row>
     <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
       <c r="F193" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G193" s="19"/>
+      <c r="G193" s="23"/>
     </row>
     <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
+      <c r="A194" s="42"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
       <c r="F194" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G194" s="19"/>
+      <c r="G194" s="23"/>
     </row>
     <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
+      <c r="A195" s="42"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
       <c r="F195" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G195" s="19"/>
+      <c r="G195" s="23"/>
     </row>
     <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="20">
+      <c r="A196" s="42">
         <v>42</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D196" s="19" t="s">
+      <c r="D196" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="19" t="s">
+      <c r="E196" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G196" s="19" t="s">
+      <c r="G196" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
       <c r="F197" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G197" s="19"/>
+      <c r="G197" s="23"/>
     </row>
     <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
+      <c r="A198" s="42"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="23"/>
       <c r="F198" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G198" s="19"/>
+      <c r="G198" s="23"/>
     </row>
     <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
+      <c r="A199" s="42"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
       <c r="F199" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G199" s="19"/>
+      <c r="G199" s="23"/>
     </row>
     <row r="200" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
+      <c r="A200" s="42"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
       <c r="F200" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G200" s="19"/>
+      <c r="G200" s="23"/>
     </row>
     <row r="201" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
+      <c r="A201" s="42"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
       <c r="F201" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G201" s="19"/>
+      <c r="G201" s="23"/>
     </row>
     <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
+      <c r="A202" s="42">
         <v>43</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="19" t="s">
+      <c r="D202" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="19" t="s">
+      <c r="E202" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F202" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
+      <c r="A203" s="42"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
       <c r="F203" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G203" s="19"/>
+      <c r="G203" s="23"/>
     </row>
     <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
+      <c r="A204" s="42"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
       <c r="F204" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G204" s="19"/>
+      <c r="G204" s="23"/>
     </row>
     <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
+      <c r="A205" s="42"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
       <c r="F205" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G205" s="19"/>
+      <c r="G205" s="23"/>
     </row>
     <row r="206" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
+      <c r="A206" s="42"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
       <c r="F206" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G206" s="19"/>
+      <c r="G206" s="23"/>
     </row>
     <row r="207" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
+      <c r="A207" s="42"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
       <c r="F207" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G207" s="19"/>
+      <c r="G207" s="23"/>
     </row>
     <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="20">
+      <c r="A208" s="42">
         <v>44</v>
       </c>
-      <c r="B208" s="19" t="s">
+      <c r="B208" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="D208" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E208" s="19" t="s">
+      <c r="E208" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G208" s="19" t="s">
+      <c r="G208" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
+      <c r="A209" s="42"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
       <c r="F209" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G209" s="19"/>
+      <c r="G209" s="23"/>
     </row>
     <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
+      <c r="A210" s="42"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
       <c r="F210" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G210" s="19"/>
+      <c r="G210" s="23"/>
     </row>
     <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
+      <c r="A211" s="42"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
       <c r="F211" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G211" s="19"/>
+      <c r="G211" s="23"/>
     </row>
     <row r="212" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
+      <c r="A212" s="42"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
       <c r="F212" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G212" s="19"/>
+      <c r="G212" s="23"/>
     </row>
     <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
+      <c r="A213" s="42"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
       <c r="F213" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G213" s="19"/>
+      <c r="G213" s="23"/>
     </row>
     <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
+      <c r="A214" s="42">
         <v>45</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C214" s="19" t="s">
+      <c r="C214" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="19" t="s">
+      <c r="D214" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="19" t="s">
+      <c r="E214" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G214" s="19" t="s">
+      <c r="G214" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
+      <c r="A215" s="42"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
       <c r="F215" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G215" s="19"/>
+      <c r="G215" s="23"/>
     </row>
     <row r="216" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
+      <c r="A216" s="42"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
       <c r="F216" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G216" s="19"/>
+      <c r="G216" s="23"/>
     </row>
     <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
+      <c r="A217" s="42"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
       <c r="F217" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G217" s="19"/>
+      <c r="G217" s="23"/>
     </row>
     <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
+      <c r="A218" s="42"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
       <c r="F218" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G218" s="19"/>
+      <c r="G218" s="23"/>
     </row>
     <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="20">
+      <c r="A219" s="42">
         <v>46</v>
       </c>
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="21" t="s">
+      <c r="D219" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E219" s="21" t="s">
+      <c r="E219" s="45" t="s">
         <v>52</v>
       </c>
       <c r="F219" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G219" s="19" t="s">
+      <c r="G219" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
+      <c r="A220" s="42"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
       <c r="F220" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G220" s="19"/>
+      <c r="G220" s="23"/>
     </row>
     <row r="221" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
+      <c r="A221" s="42"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
       <c r="F221" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G221" s="19"/>
+      <c r="G221" s="23"/>
     </row>
     <row r="222" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
+      <c r="A222" s="42"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="45"/>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
       <c r="F222" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G222" s="19"/>
+      <c r="G222" s="23"/>
     </row>
     <row r="223" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="29">
+      <c r="A223" s="36">
         <v>47</v>
       </c>
-      <c r="B223" s="31" t="s">
+      <c r="B223" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C223" s="44" t="s">
+      <c r="C223" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="31" t="s">
+      <c r="E223" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G223" s="22" t="s">
+      <c r="G223" s="48" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A224" s="29"/>
-      <c r="B224" s="31"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="31"/>
-      <c r="E224" s="31"/>
+      <c r="A224" s="36"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
       <c r="F224" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G224" s="22"/>
+      <c r="G224" s="48"/>
     </row>
     <row r="225" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="29"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="31"/>
-      <c r="E225" s="31"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
       <c r="F225" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G225" s="22"/>
+      <c r="G225" s="48"/>
     </row>
     <row r="226" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="29"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="31"/>
-      <c r="E226" s="31"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="21"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
       <c r="F226" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G226" s="22"/>
+      <c r="G226" s="48"/>
     </row>
     <row r="227" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
+      <c r="A227" s="42">
         <v>48</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="19" t="s">
+      <c r="E227" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F227" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G227" s="19" t="s">
+      <c r="G227" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
+      <c r="A228" s="42"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
       <c r="F228" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G228" s="19"/>
+      <c r="G228" s="23"/>
     </row>
     <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
+      <c r="A229" s="42"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
       <c r="F229" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G229" s="19"/>
+      <c r="G229" s="23"/>
     </row>
     <row r="230" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
+      <c r="A230" s="42"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
       <c r="F230" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G230" s="19"/>
+      <c r="G230" s="23"/>
     </row>
     <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="20">
+      <c r="A231" s="42">
         <v>49</v>
       </c>
-      <c r="B231" s="19" t="s">
+      <c r="B231" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="19" t="s">
+      <c r="D231" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E231" s="19" t="s">
+      <c r="E231" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F231" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G231" s="19" t="s">
+      <c r="G231" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
+      <c r="A232" s="42"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
       <c r="F232" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G232" s="19"/>
+      <c r="G232" s="23"/>
     </row>
     <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
+      <c r="A233" s="42"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
       <c r="F233" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G233" s="19"/>
+      <c r="G233" s="23"/>
     </row>
     <row r="234" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19"/>
+      <c r="A234" s="42"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
       <c r="F234" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G234" s="19"/>
+      <c r="G234" s="23"/>
     </row>
     <row r="235" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
+      <c r="A235" s="42"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
       <c r="F235" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G235" s="19"/>
+      <c r="G235" s="23"/>
     </row>
     <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="20">
+      <c r="A236" s="42">
         <v>50</v>
       </c>
-      <c r="B236" s="19" t="s">
+      <c r="B236" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C236" s="19" t="s">
+      <c r="C236" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="19" t="s">
+      <c r="D236" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E236" s="19" t="s">
+      <c r="E236" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G236" s="19" t="s">
+      <c r="G236" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
+      <c r="A237" s="42"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
       <c r="F237" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G237" s="19"/>
+      <c r="G237" s="23"/>
     </row>
     <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
+      <c r="A238" s="42"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
       <c r="F238" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G238" s="19"/>
+      <c r="G238" s="23"/>
     </row>
     <row r="239" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
+      <c r="A239" s="42"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
       <c r="F239" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G239" s="19"/>
+      <c r="G239" s="23"/>
     </row>
     <row r="240" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
+      <c r="A240" s="42"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
       <c r="F240" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G240" s="19"/>
+      <c r="G240" s="23"/>
     </row>
     <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="20">
+      <c r="A241" s="42">
         <v>51</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D241" s="19" t="s">
+      <c r="D241" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="21" t="s">
+      <c r="E241" s="45" t="s">
         <v>52</v>
       </c>
       <c r="F241" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G241" s="21" t="s">
+      <c r="G241" s="45" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="21"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="21"/>
+      <c r="A242" s="42"/>
+      <c r="B242" s="45"/>
+      <c r="C242" s="45"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="45"/>
       <c r="F242" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G242" s="21"/>
+      <c r="G242" s="45"/>
     </row>
     <row r="243" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
-      <c r="B243" s="21"/>
-      <c r="C243" s="21"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="21"/>
+      <c r="A243" s="42"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="45"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="45"/>
       <c r="F243" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G243" s="21"/>
+      <c r="G243" s="45"/>
     </row>
     <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="19"/>
-      <c r="E244" s="21"/>
+      <c r="A244" s="42"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="45"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="45"/>
       <c r="F244" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G244" s="21"/>
+      <c r="G244" s="45"/>
     </row>
     <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="21"/>
+      <c r="A245" s="42"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="45"/>
       <c r="F245" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G245" s="21"/>
+      <c r="G245" s="45"/>
     </row>
     <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="20">
+      <c r="A246" s="64">
         <v>52</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="B246" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C246" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F246" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G246" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A247" s="65"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="60"/>
+      <c r="D247" s="62"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G247" s="23"/>
+    </row>
+    <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A248" s="65"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="60"/>
+      <c r="D248" s="62"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G248" s="23"/>
+    </row>
+    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="65"/>
+      <c r="B249" s="60"/>
+      <c r="C249" s="60"/>
+      <c r="D249" s="62"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G249" s="23"/>
+    </row>
+    <row r="250" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="66"/>
+      <c r="B250" s="61"/>
+      <c r="C250" s="61"/>
+      <c r="D250" s="63"/>
+      <c r="E250" s="45"/>
+      <c r="F250" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G250" s="23"/>
+    </row>
+    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="42">
+        <v>53</v>
+      </c>
+      <c r="B251" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C251" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="21" t="s">
+      <c r="D251" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G246" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="G247" s="21"/>
-    </row>
-    <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="21"/>
-      <c r="F248" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G248" s="21"/>
-    </row>
-    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G249" s="21"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G250" s="21"/>
-    </row>
-    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="20">
-        <v>53</v>
-      </c>
-      <c r="B251" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E251" s="21" t="s">
+      <c r="E251" s="45" t="s">
         <v>52</v>
       </c>
       <c r="F251" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G251" s="21" t="s">
+      <c r="G251" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="45"/>
+      <c r="D252" s="45"/>
+      <c r="E252" s="45"/>
+      <c r="F252" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G252" s="45"/>
+    </row>
+    <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="42"/>
+      <c r="B253" s="45"/>
+      <c r="C253" s="45"/>
+      <c r="D253" s="45"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G253" s="45"/>
+    </row>
+    <row r="254" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="42"/>
+      <c r="B254" s="45"/>
+      <c r="C254" s="45"/>
+      <c r="D254" s="45"/>
+      <c r="E254" s="45"/>
+      <c r="F254" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G254" s="45"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="42"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="45"/>
+      <c r="D255" s="45"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G255" s="45"/>
+    </row>
+    <row r="256" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="42">
+        <v>54</v>
+      </c>
+      <c r="B256" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C256" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G256" s="45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="21"/>
-      <c r="F252" s="15" t="s">
+    <row r="257" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A257" s="42"/>
+      <c r="B257" s="45"/>
+      <c r="C257" s="45"/>
+      <c r="D257" s="45"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G252" s="21"/>
-    </row>
-    <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="15" t="s">
+      <c r="G257" s="45"/>
+    </row>
+    <row r="258" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A258" s="42"/>
+      <c r="B258" s="45"/>
+      <c r="C258" s="45"/>
+      <c r="D258" s="45"/>
+      <c r="E258" s="45"/>
+      <c r="F258" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G253" s="21"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="15" t="s">
+      <c r="G258" s="45"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="42"/>
+      <c r="B259" s="45"/>
+      <c r="C259" s="45"/>
+      <c r="D259" s="45"/>
+      <c r="E259" s="45"/>
+      <c r="F259" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G254" s="21"/>
-    </row>
-    <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="20">
-        <v>54</v>
-      </c>
-      <c r="B255" s="21" t="s">
+      <c r="G259" s="45"/>
+    </row>
+    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="42">
+        <v>55</v>
+      </c>
+      <c r="B260" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C255" s="21" t="s">
+      <c r="C260" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D255" s="21" t="s">
+      <c r="D260" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E255" s="21" t="s">
+      <c r="E260" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F255" s="16" t="s">
+      <c r="F260" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G255" s="21" t="s">
+      <c r="G260" s="45" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="21"/>
-      <c r="F256" s="16" t="s">
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A261" s="42"/>
+      <c r="B261" s="45"/>
+      <c r="C261" s="45"/>
+      <c r="D261" s="45"/>
+      <c r="E261" s="45"/>
+      <c r="F261" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G256" s="21"/>
-    </row>
-    <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="16" t="s">
+      <c r="G261" s="45"/>
+    </row>
+    <row r="262" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A262" s="42"/>
+      <c r="B262" s="45"/>
+      <c r="C262" s="45"/>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G257" s="21"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21"/>
-      <c r="F258" s="16" t="s">
+      <c r="G262" s="45"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="42"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="45"/>
+      <c r="E263" s="45"/>
+      <c r="F263" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G258" s="21"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="51" t="s">
+      <c r="G263" s="45"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B259" s="52"/>
-      <c r="C259" s="52"/>
-      <c r="D259" s="52"/>
-      <c r="E259" s="52"/>
-      <c r="F259" s="52"/>
-      <c r="G259" s="53"/>
-    </row>
-    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="20">
-        <v>55</v>
-      </c>
-      <c r="B260" s="19" t="s">
+      <c r="B264" s="27"/>
+      <c r="C264" s="27"/>
+      <c r="D264" s="27"/>
+      <c r="E264" s="27"/>
+      <c r="F264" s="27"/>
+      <c r="G264" s="28"/>
+    </row>
+    <row r="265" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="42">
+        <v>56</v>
+      </c>
+      <c r="B265" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C260" s="19" t="s">
+      <c r="C265" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="19" t="s">
+      <c r="D265" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E260" s="19" t="s">
+      <c r="E265" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F260" s="15" t="s">
+      <c r="F265" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G260" s="19" t="s">
+      <c r="G265" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="15" t="s">
+    <row r="266" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="42"/>
+      <c r="B266" s="23"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="23"/>
+      <c r="F266" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G261" s="19"/>
-    </row>
-    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="20">
-        <v>56</v>
-      </c>
-      <c r="B262" s="19" t="s">
+      <c r="G266" s="23"/>
+    </row>
+    <row r="267" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="42">
+        <v>57</v>
+      </c>
+      <c r="B267" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C262" s="19" t="s">
+      <c r="C267" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="19" t="s">
+      <c r="D267" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E262" s="19" t="s">
+      <c r="E267" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F262" s="15" t="s">
+      <c r="F267" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G262" s="19" t="s">
+      <c r="G267" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="15" t="s">
+    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="42"/>
+      <c r="B268" s="23"/>
+      <c r="C268" s="23"/>
+      <c r="D268" s="23"/>
+      <c r="E268" s="23"/>
+      <c r="F268" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G263" s="19"/>
-    </row>
-    <row r="264" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="15" t="s">
+      <c r="G268" s="23"/>
+    </row>
+    <row r="269" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="42"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G264" s="19"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="51" t="s">
+      <c r="G269" s="23"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="52"/>
-      <c r="C265" s="52"/>
-      <c r="D265" s="52"/>
-      <c r="E265" s="52"/>
-      <c r="F265" s="52"/>
-      <c r="G265" s="53"/>
-    </row>
-    <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="20">
-        <v>57</v>
-      </c>
-      <c r="B266" s="19" t="s">
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
+      <c r="D270" s="27"/>
+      <c r="E270" s="27"/>
+      <c r="F270" s="27"/>
+      <c r="G270" s="28"/>
+    </row>
+    <row r="271" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="42">
+        <v>58</v>
+      </c>
+      <c r="B271" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C266" s="19" t="s">
+      <c r="C271" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D266" s="19" t="s">
+      <c r="D271" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E266" s="19" t="s">
+      <c r="E271" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F266" s="15" t="s">
+      <c r="F271" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G266" s="19" t="s">
+      <c r="G271" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="15" t="s">
+    <row r="272" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="42"/>
+      <c r="B272" s="23"/>
+      <c r="C272" s="23"/>
+      <c r="D272" s="23"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G267" s="19"/>
-    </row>
-    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="20">
-        <v>58</v>
-      </c>
-      <c r="B268" s="19" t="s">
+      <c r="G272" s="23"/>
+    </row>
+    <row r="273" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="42">
+        <v>59</v>
+      </c>
+      <c r="B273" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C268" s="19" t="s">
+      <c r="C273" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="19" t="s">
+      <c r="D273" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E268" s="19" t="s">
+      <c r="E273" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F268" s="15" t="s">
+      <c r="F273" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G268" s="19" t="s">
+      <c r="G273" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="15" t="s">
+    <row r="274" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="42"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G269" s="19"/>
-    </row>
-    <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="20">
-        <v>59</v>
-      </c>
-      <c r="B270" s="19" t="s">
+      <c r="G274" s="23"/>
+    </row>
+    <row r="275" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="42">
+        <v>60</v>
+      </c>
+      <c r="B275" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C270" s="19" t="s">
+      <c r="C275" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="19" t="s">
+      <c r="D275" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E270" s="19" t="s">
+      <c r="E275" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F270" s="16" t="s">
+      <c r="F275" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G270" s="19" t="s">
+      <c r="G275" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="15" t="s">
+    <row r="276" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="42"/>
+      <c r="B276" s="23"/>
+      <c r="C276" s="23"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="23"/>
+      <c r="F276" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G271" s="19"/>
-    </row>
-    <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="20">
-        <v>60</v>
-      </c>
-      <c r="B272" s="19" t="s">
+      <c r="G276" s="23"/>
+    </row>
+    <row r="277" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A277" s="42">
+        <v>61</v>
+      </c>
+      <c r="B277" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C272" s="19" t="s">
+      <c r="C277" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D272" s="19" t="s">
+      <c r="D277" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E272" s="19" t="s">
+      <c r="E277" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F272" s="15" t="s">
+      <c r="F277" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G272" s="19" t="s">
+      <c r="G277" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="15" t="s">
+    <row r="278" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="42"/>
+      <c r="B278" s="23"/>
+      <c r="C278" s="23"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="23"/>
+      <c r="F278" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G273" s="19"/>
-    </row>
-    <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="20">
-        <v>61</v>
-      </c>
-      <c r="B274" s="19" t="s">
+      <c r="G278" s="23"/>
+    </row>
+    <row r="279" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A279" s="42">
+        <v>62</v>
+      </c>
+      <c r="B279" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C274" s="19" t="s">
+      <c r="C279" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D274" s="19" t="s">
+      <c r="D279" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E274" s="19" t="s">
+      <c r="E279" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F274" s="15" t="s">
+      <c r="F279" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G274" s="19" t="s">
+      <c r="G279" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="16" t="s">
+    <row r="280" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="42"/>
+      <c r="B280" s="23"/>
+      <c r="C280" s="23"/>
+      <c r="D280" s="23"/>
+      <c r="E280" s="23"/>
+      <c r="F280" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G275" s="19"/>
+      <c r="G280" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="388">
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A259:G259"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A265:G265"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="A174:A181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="D174:D181"/>
-    <mergeCell ref="E174:E181"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="C190:C195"/>
-    <mergeCell ref="D190:D195"/>
-    <mergeCell ref="E190:E195"/>
-    <mergeCell ref="A208:A213"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="E208:E213"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="E219:E222"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="D214:D218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="D223:D226"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="D236:D240"/>
-    <mergeCell ref="E236:E240"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="D231:D235"/>
-    <mergeCell ref="E231:E235"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="B246:B250"/>
-    <mergeCell ref="C246:C250"/>
-    <mergeCell ref="D246:D250"/>
-    <mergeCell ref="E246:E250"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="D251:D254"/>
-    <mergeCell ref="E251:E254"/>
+  <mergeCells count="394">
+    <mergeCell ref="G246:G250"/>
+    <mergeCell ref="G267:G269"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="G277:G278"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="G231:G235"/>
+    <mergeCell ref="G236:G240"/>
+    <mergeCell ref="G241:G245"/>
+    <mergeCell ref="G251:G255"/>
+    <mergeCell ref="G256:G259"/>
+    <mergeCell ref="G260:G263"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="G273:G274"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="G265:G266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="E267:E269"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="G190:G195"/>
+    <mergeCell ref="G196:G201"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="G143:G146"/>
+    <mergeCell ref="G147:G153"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="G158:G162"/>
+    <mergeCell ref="G163:G167"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="G174:G181"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
     <mergeCell ref="G59:G61"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G16"/>
@@ -5676,120 +5662,261 @@
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="G143:G146"/>
-    <mergeCell ref="G147:G153"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="G158:G162"/>
-    <mergeCell ref="G163:G167"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="G174:G181"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="G190:G195"/>
-    <mergeCell ref="G196:G201"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="G219:G222"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="G231:G235"/>
-    <mergeCell ref="G236:G240"/>
-    <mergeCell ref="G241:G245"/>
-    <mergeCell ref="G246:G250"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="G268:G269"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="E262:E264"/>
-    <mergeCell ref="G262:G264"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="E270:E271"/>
-    <mergeCell ref="G270:G271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="B260:B263"/>
+    <mergeCell ref="C260:C263"/>
+    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="E260:E263"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="B256:B259"/>
+    <mergeCell ref="C256:C259"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="E256:E259"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="E251:E255"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="B246:B250"/>
+    <mergeCell ref="C246:C250"/>
+    <mergeCell ref="D246:D250"/>
+    <mergeCell ref="E246:E250"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="D231:D235"/>
+    <mergeCell ref="E231:E235"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="D223:D226"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="E219:E222"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="A208:A213"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="E208:E213"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="D202:D207"/>
+    <mergeCell ref="E202:E207"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="C196:C201"/>
+    <mergeCell ref="D196:D201"/>
+    <mergeCell ref="E196:E201"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="C190:C195"/>
+    <mergeCell ref="D190:D195"/>
+    <mergeCell ref="E190:E195"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="A174:A181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="D174:D181"/>
+    <mergeCell ref="E174:E181"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="E163:E167"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A264:G264"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F80:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
